--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -20,13 +20,13 @@
     <definedName name="environmentalpackage">'cv_sample'!$AL$1:$AL$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$EF$1:$EF$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$BC$1:$BC$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$EC$1:$EC$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AH$1:$AH$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="870">
   <si>
     <t>alias</t>
   </si>
@@ -457,6 +457,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -556,6 +568,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -673,6 +703,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -680,6 +713,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -3221,10 +3257,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3265,10 +3301,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3331,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3315,7 +3351,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3332,7 +3368,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3349,7 +3385,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3366,7 +3402,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3383,7 +3419,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3400,7 +3436,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3417,7 +3453,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3434,7 +3470,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3451,7 +3487,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3465,7 +3501,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3479,7 +3515,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3493,7 +3529,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3507,7 +3543,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3517,8 +3553,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3528,8 +3567,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3539,8 +3581,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3550,8 +3595,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3562,7 +3610,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3573,7 +3621,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3584,7 +3632,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3595,7 +3643,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3606,7 +3654,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3617,7 +3665,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3628,7 +3676,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3639,7 +3687,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3650,7 +3698,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3661,7 +3709,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3672,7 +3720,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3683,7 +3731,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3694,7 +3742,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3705,7 +3753,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3713,7 +3761,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3721,7 +3769,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3729,7 +3777,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3737,7 +3785,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3745,7 +3793,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3753,7 +3801,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3761,7 +3809,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3769,7 +3817,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3777,7 +3825,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3785,176 +3833,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3979,27 +4067,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4022,122 +4110,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4164,828 +4252,828 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -5029,1587 +5117,1587 @@
   <sheetData>
     <row r="1" spans="34:136">
       <c r="AH1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AL1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AN1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="BC1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BX1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="EB1" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="EC1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="EF1" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" spans="34:136">
       <c r="AH2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AN2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="BC2" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BX2" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="EB2" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="EC2" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="EF2" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="34:136">
       <c r="AH3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AN3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="EB3" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="EC3" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="EF3" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="34:136">
       <c r="AN4" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="EB4" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="EC4" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="EF4" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="34:136">
       <c r="AN5" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="EB5" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="EC5" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="EF5" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" spans="34:136">
       <c r="AN6" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="EB6" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="EC6" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="34:136">
       <c r="AN7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="EB7" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="EC7" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="34:136">
       <c r="AN8" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="EB8" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="34:136">
       <c r="AN9" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="EB9" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="34:136">
       <c r="AN10" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="EB10" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="34:136">
       <c r="AN11" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="EB11" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="34:136">
       <c r="AN12" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="EB12" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="34:136">
       <c r="AN13" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="EB13" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="34:136">
       <c r="AN14" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="EB14" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="34:136">
       <c r="AN15" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="EB15" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="34:136">
       <c r="AN16" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="EB16" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="40:132">
       <c r="AN17" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="EB17" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="40:132">
       <c r="AN18" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="EB18" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="40:132">
       <c r="AN19" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="EB19" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="40:132">
       <c r="AN20" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="EB20" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21" spans="40:132">
       <c r="AN21" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="EB21" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="40:132">
       <c r="AN22" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="EB22" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="40:132">
       <c r="AN23" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="EB23" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="40:132">
       <c r="AN24" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="EB24" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="40:132">
       <c r="AN25" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="EB25" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="40:132">
       <c r="AN26" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="EB26" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="40:132">
       <c r="AN27" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="EB27" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28" spans="40:132">
       <c r="AN28" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="EB28" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="40:132">
       <c r="AN29" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="EB29" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="40:132">
       <c r="AN30" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="EB30" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="31" spans="40:132">
       <c r="AN31" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="40:132">
       <c r="AN32" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="40:40">
       <c r="AN33" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="40:40">
       <c r="AN34" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="40:40">
       <c r="AN36" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="40:40">
       <c r="AN37" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="40:40">
       <c r="AN38" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="40:40">
       <c r="AN39" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="40:40">
       <c r="AN41" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="40:40">
       <c r="AN42" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="40:40">
       <c r="AN43" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="40:40">
       <c r="AN44" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="40:40">
       <c r="AN46" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="40:40">
       <c r="AN47" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="40:40">
       <c r="AN48" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="40:40">
       <c r="AN49" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="40:40">
       <c r="AN51" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="40:40">
       <c r="AN52" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="40:40">
       <c r="AN53" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="40:40">
       <c r="AN54" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="40:40">
       <c r="AN56" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="40:40">
       <c r="AN57" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="40:40">
       <c r="AN60" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="40:40">
       <c r="AN61" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="40:40">
       <c r="AN63" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="40:40">
       <c r="AN64" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="40:40">
       <c r="AN65" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="40:40">
       <c r="AN66" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="40:40">
       <c r="AN67" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="40:40">
       <c r="AN68" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="40:40">
       <c r="AN70" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="40:40">
       <c r="AN71" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="40:40">
       <c r="AN72" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="40:40">
       <c r="AN73" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="40:40">
       <c r="AN74" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="40:40">
       <c r="AN76" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="40:40">
       <c r="AN77" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="40:40">
       <c r="AN78" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="40:40">
       <c r="AN79" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="40:40">
       <c r="AN80" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="40:40">
       <c r="AN82" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="40:40">
       <c r="AN83" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="40:40">
       <c r="AN84" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="40:40">
       <c r="AN85" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="40:40">
       <c r="AN86" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="40:40">
       <c r="AN88" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="40:40">
       <c r="AN89" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="40:40">
       <c r="AN90" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="40:40">
       <c r="AN91" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="40:40">
       <c r="AN92" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="40:40">
       <c r="AN93" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="40:40">
       <c r="AN94" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="40:40">
       <c r="AN95" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="40:40">
       <c r="AN96" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="40:40">
       <c r="AN97" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="40:40">
       <c r="AN98" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="40:40">
       <c r="AN99" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="40:40">
       <c r="AN100" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="40:40">
       <c r="AN101" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="40:40">
       <c r="AN102" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="40:40">
       <c r="AN103" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="40:40">
       <c r="AN104" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="40:40">
       <c r="AN105" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="40:40">
       <c r="AN106" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="40:40">
       <c r="AN107" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="40:40">
       <c r="AN108" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="40:40">
       <c r="AN109" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="40:40">
       <c r="AN110" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="40:40">
       <c r="AN111" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="40:40">
       <c r="AN112" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="40:40">
       <c r="AN113" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="40:40">
       <c r="AN114" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="40:40">
       <c r="AN115" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="40:40">
       <c r="AN116" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="40:40">
       <c r="AN117" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="40:40">
       <c r="AN118" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="40:40">
       <c r="AN119" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="40:40">
       <c r="AN120" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="40:40">
       <c r="AN121" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="40:40">
       <c r="AN122" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="40:40">
       <c r="AN123" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="40:40">
       <c r="AN124" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="40:40">
       <c r="AN125" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="40:40">
       <c r="AN126" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="40:40">
       <c r="AN127" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="40:40">
       <c r="AN128" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="40:40">
       <c r="AN129" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="40:40">
       <c r="AN130" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="40:40">
       <c r="AN131" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="132" spans="40:40">
       <c r="AN132" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" spans="40:40">
       <c r="AN133" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="40:40">
       <c r="AN134" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="40:40">
       <c r="AN135" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="40:40">
       <c r="AN136" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="40:40">
       <c r="AN137" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="40:40">
       <c r="AN138" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="40:40">
       <c r="AN139" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="40:40">
       <c r="AN140" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="40:40">
       <c r="AN141" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142" spans="40:40">
       <c r="AN142" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="40:40">
       <c r="AN143" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="144" spans="40:40">
       <c r="AN144" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="145" spans="40:40">
       <c r="AN145" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="40:40">
       <c r="AN146" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="40:40">
       <c r="AN147" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="40:40">
       <c r="AN148" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="40:40">
       <c r="AN149" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="40:40">
       <c r="AN150" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="40:40">
       <c r="AN151" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="40:40">
       <c r="AN152" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="40:40">
       <c r="AN153" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" spans="40:40">
       <c r="AN154" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="40:40">
       <c r="AN155" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="40:40">
       <c r="AN156" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="157" spans="40:40">
       <c r="AN157" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="40:40">
       <c r="AN158" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="40:40">
       <c r="AN159" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="40:40">
       <c r="AN160" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="40:40">
       <c r="AN161" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="40:40">
       <c r="AN162" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="40:40">
       <c r="AN163" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="40:40">
       <c r="AN164" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="40:40">
       <c r="AN165" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="40:40">
       <c r="AN166" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="40:40">
       <c r="AN167" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="40:40">
       <c r="AN168" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="40:40">
       <c r="AN169" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="40:40">
       <c r="AN170" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="40:40">
       <c r="AN171" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="40:40">
       <c r="AN172" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="40:40">
       <c r="AN173" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="174" spans="40:40">
       <c r="AN174" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="40:40">
       <c r="AN175" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176" spans="40:40">
       <c r="AN176" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="177" spans="40:40">
       <c r="AN177" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="40:40">
       <c r="AN178" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="179" spans="40:40">
       <c r="AN179" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="40:40">
       <c r="AN180" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="181" spans="40:40">
       <c r="AN181" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="182" spans="40:40">
       <c r="AN182" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="183" spans="40:40">
       <c r="AN183" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="184" spans="40:40">
       <c r="AN184" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="40:40">
       <c r="AN185" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="186" spans="40:40">
       <c r="AN186" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="40:40">
       <c r="AN187" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="188" spans="40:40">
       <c r="AN188" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="40:40">
       <c r="AN189" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="190" spans="40:40">
       <c r="AN190" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="191" spans="40:40">
       <c r="AN191" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="40:40">
       <c r="AN192" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="193" spans="40:40">
       <c r="AN193" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="194" spans="40:40">
       <c r="AN194" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="195" spans="40:40">
       <c r="AN195" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="40:40">
       <c r="AN196" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="40:40">
       <c r="AN197" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="40:40">
       <c r="AN198" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="40:40">
       <c r="AN199" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="200" spans="40:40">
       <c r="AN200" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="201" spans="40:40">
       <c r="AN201" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="40:40">
       <c r="AN202" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="203" spans="40:40">
       <c r="AN203" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="204" spans="40:40">
       <c r="AN204" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="205" spans="40:40">
       <c r="AN205" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="206" spans="40:40">
       <c r="AN206" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="207" spans="40:40">
       <c r="AN207" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="208" spans="40:40">
       <c r="AN208" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="209" spans="40:40">
       <c r="AN209" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210" spans="40:40">
       <c r="AN210" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="40:40">
       <c r="AN211" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="212" spans="40:40">
       <c r="AN212" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="40:40">
       <c r="AN213" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="40:40">
       <c r="AN214" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="215" spans="40:40">
       <c r="AN215" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="216" spans="40:40">
       <c r="AN216" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="217" spans="40:40">
       <c r="AN217" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="218" spans="40:40">
       <c r="AN218" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="219" spans="40:40">
       <c r="AN219" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="220" spans="40:40">
       <c r="AN220" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="221" spans="40:40">
       <c r="AN221" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="222" spans="40:40">
       <c r="AN222" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="223" spans="40:40">
       <c r="AN223" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="224" spans="40:40">
       <c r="AN224" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="225" spans="40:40">
       <c r="AN225" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="226" spans="40:40">
       <c r="AN226" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="227" spans="40:40">
       <c r="AN227" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="228" spans="40:40">
       <c r="AN228" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="229" spans="40:40">
       <c r="AN229" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="230" spans="40:40">
       <c r="AN230" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="231" spans="40:40">
       <c r="AN231" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="232" spans="40:40">
       <c r="AN232" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="233" spans="40:40">
       <c r="AN233" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="40:40">
       <c r="AN234" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="40:40">
       <c r="AN235" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="40:40">
       <c r="AN236" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="237" spans="40:40">
       <c r="AN237" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="40:40">
       <c r="AN238" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239" spans="40:40">
       <c r="AN239" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="240" spans="40:40">
       <c r="AN240" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="241" spans="40:40">
       <c r="AN241" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="40:40">
       <c r="AN242" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="243" spans="40:40">
       <c r="AN243" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="40:40">
       <c r="AN244" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="245" spans="40:40">
       <c r="AN245" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="246" spans="40:40">
       <c r="AN246" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="247" spans="40:40">
       <c r="AN247" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="248" spans="40:40">
       <c r="AN248" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="249" spans="40:40">
       <c r="AN249" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="250" spans="40:40">
       <c r="AN250" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="251" spans="40:40">
       <c r="AN251" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="252" spans="40:40">
       <c r="AN252" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="253" spans="40:40">
       <c r="AN253" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="254" spans="40:40">
       <c r="AN254" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="255" spans="40:40">
       <c r="AN255" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="256" spans="40:40">
       <c r="AN256" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="257" spans="40:40">
       <c r="AN257" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="258" spans="40:40">
       <c r="AN258" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="259" spans="40:40">
       <c r="AN259" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="40:40">
       <c r="AN260" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="261" spans="40:40">
       <c r="AN261" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="262" spans="40:40">
       <c r="AN262" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="263" spans="40:40">
       <c r="AN263" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="264" spans="40:40">
       <c r="AN264" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="265" spans="40:40">
       <c r="AN265" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="266" spans="40:40">
       <c r="AN266" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="267" spans="40:40">
       <c r="AN267" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="268" spans="40:40">
       <c r="AN268" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="269" spans="40:40">
       <c r="AN269" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="270" spans="40:40">
       <c r="AN270" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="271" spans="40:40">
       <c r="AN271" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="272" spans="40:40">
       <c r="AN272" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="273" spans="40:40">
       <c r="AN273" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="274" spans="40:40">
       <c r="AN274" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="275" spans="40:40">
       <c r="AN275" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="276" spans="40:40">
       <c r="AN276" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="277" spans="40:40">
       <c r="AN277" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="278" spans="40:40">
       <c r="AN278" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="279" spans="40:40">
       <c r="AN279" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="280" spans="40:40">
       <c r="AN280" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="281" spans="40:40">
       <c r="AN281" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="282" spans="40:40">
       <c r="AN282" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="283" spans="40:40">
       <c r="AN283" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="284" spans="40:40">
       <c r="AN284" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="285" spans="40:40">
       <c r="AN285" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="286" spans="40:40">
       <c r="AN286" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="287" spans="40:40">
       <c r="AN287" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -838,36 +838,31 @@
     <t>Latitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. Units: 
-                    </t>
+    <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
     <t>Longitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. Units: 
-                    </t>
+    <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
     <t>Latitude End</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. Units: 
-                    </t>
+    <t>(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
     <t>Longitude End</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. Units: 
-                    </t>
+    <t>(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
     <t>Depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 Units: 
-                    </t>
+    <t>(Mandatory) The distance below the surface of the water at which a measurement was made or a sample was collected. format: ####.##, positive below the sea surface. sdn:p06:46:ulaa for m. example: 14.71 (Units: m)</t>
   </si>
   <si>
     <t>Protocol Label</t>
@@ -933,8 +928,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1999,22 +1993,19 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements Units: 
-                    </t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
   </si>
   <si>
     <t>density</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Density of sample Units: 
-                    </t>
+    <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
     <t>aerobic</t>
@@ -2038,15 +2029,13 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2064,15 +2053,13 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. Units: 
-                    </t>
+    <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
     <t>Salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Mandatory) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>specific host</t>
@@ -2090,8 +2077,7 @@
     <t>alkalinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate Units: 
-                    </t>
+    <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
     <t>atmospheric data</t>
@@ -2103,64 +2089,55 @@
     <t>conductivity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Electrical conductivity of water Units: 
-                    </t>
+    <t>(Optional) Electrical conductivity of water (Units: mS/cm)</t>
   </si>
   <si>
     <t>water current</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of magnitude and direction of flow within a fluid Units: 
-                    </t>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
   </si>
   <si>
     <t>fluorescence</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Raw (volts) or converted (mg chla/m^3) fluorescence of the water Units: 
-                    </t>
+    <t>(Optional) Raw (volts) or converted (mg chla/m^3) fluorescence of the water (Units: mg Chla/m3)</t>
   </si>
   <si>
     <t>light intensity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of light intensity Units: 
-                    </t>
+    <t>(Optional) Measurement of light intensity (Units: lux)</t>
   </si>
   <si>
     <t>mean friction velocity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of mean friction velocity Units: 
-                    </t>
+    <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
     <t>mean peak friction velocity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of mean peak friction velocity Units: 
-                    </t>
+    <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
   </si>
   <si>
     <t>downward PAR</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Visible waveband radiance and irradiance measurements in the water column Units: 
-                    </t>
+    <t>(Optional) Visible waveband radiance and irradiance measurements in the water column (Units: µE/m2/s)</t>
   </si>
   <si>
     <t>photon flux</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of photon flux Units: 
-                    </t>
+    <t>(Optional) Measurement of photon flux (Units: µmol/m2/s)</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Pressure to which the sample is subject, in atmospheres Units: 
-                    </t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>high</t>
@@ -2178,8 +2155,7 @@
     <t>turbidity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Turbidity measurement Units: 
-                    </t>
+    <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
     <t>pH</t>
@@ -2191,71 +2167,61 @@
     <t>total depth of water column</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of total depth of water column Units: 
-                    </t>
+    <t>(Optional) Measurement of total depth of water column (Units: m)</t>
   </si>
   <si>
     <t>alkyl diethers</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of alkyl diethers Units: 
-                    </t>
+    <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
     <t>aminopeptidase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of aminopeptidase activity Units: 
-                    </t>
+    <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
   </si>
   <si>
     <t>ammonium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of ammonium Units: 
-                    </t>
+    <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
     <t>bacterial carbon production</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of bacterial carbon production Units: 
-                    </t>
+    <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
   </si>
   <si>
     <t>bacterial production</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Bacterial production in the water column measured by isotope uptake Units: 
-                    </t>
+    <t>(Optional) Bacterial production in the water column measured by isotope uptake (Units: mg/m3/d)</t>
   </si>
   <si>
     <t>bacterial respiration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of bacterial respiration in the water column Units: 
-                    </t>
+    <t>(Optional) Measurement of bacterial respiration in the water column (Units: mg/m3/d)</t>
   </si>
   <si>
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of bishomohopanol Units: 
-                    </t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
   </si>
   <si>
     <t>bromide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of bromide Units: 
-                    </t>
+    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of calcium Units: 
-                    </t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2267,281 +2233,241 @@
     <t>chloride</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chloride Units: 
-                    </t>
+    <t>(Optional) Concentration of chloride (Units: mg/L)</t>
   </si>
   <si>
     <t>chlorophyll</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chlorophyll Units: 
-                    </t>
+    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of diether lipids; can include multiple types of diether lipids Units: 
-                    </t>
+    <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
     <t>dissolved carbon dioxide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved carbon dioxide Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved hydrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved hydrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved inorganic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved inorganic carbon concentration Units: 
-                    </t>
+    <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved inorganic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved inorganic nitrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved inorganic nitrogen (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved inorganic phosphorus</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved inorganic phosphorus Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved inorganic phosphorus (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 Units: 
-                    </t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved oxygen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved oxygen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
     <t>glucosidase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of glucosidase activity Units: 
-                    </t>
+    <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
   </si>
   <si>
     <t>magnesium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of magnesium Units: 
-                    </t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
   </si>
   <si>
     <t>n-alkanes</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of n-alkanes; can include multiple n-alkanes Units: 
-                    </t>
+    <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrate Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrate (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrite</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrite Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrogen (total) Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrogen (total) (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic matter</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic matter Units: 
-                    </t>
+    <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
     <t>organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic nitrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
     <t>particulate organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of particulate organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
     <t>particulate organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of particulate organic nitrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of particulate organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
     <t>petroleum hydrocarbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of petroleum hydrocarbon Units: 
-                    </t>
+    <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>phaeopigments</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phaeopigments; can include multiple phaeopigments Units: 
-                    </t>
+    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: µg/L)</t>
   </si>
   <si>
     <t>phosphate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phosphate Units: 
-                    </t>
+    <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phospholipid fatty acids; can include multiple values Units: 
-                    </t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of potassium Units: 
-                    </t>
+    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
     <t>primary production</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of primary production Units: 
-                    </t>
+    <t>(Optional) Measurement of primary production (Units: mg/m3/day)</t>
   </si>
   <si>
     <t>redox potential</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential Units: 
-                    </t>
+    <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
   </si>
   <si>
     <t>silicate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of silicate Units: 
-                    </t>
+    <t>(Optional) Concentration of silicate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sodium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Sodium concentration Units: 
-                    </t>
+    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
     <t>soluble reactive phosphorus</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of soluble reactive phosphorus Units: 
-                    </t>
+    <t>(Optional) Concentration of soluble reactive phosphorus (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfate Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfide Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
   </si>
   <si>
     <t>suspended particulate matter</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of suspended particulate matter Units: 
-                    </t>
+    <t>(Optional) Concentration of suspended particulate matter (Units: mg/L)</t>
   </si>
   <si>
     <t>total dissolved nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = nh4 + no3no2 + dissolved organic nitrogen Units: 
-                    </t>
+    <t>(Optional) Total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = nh4 + no3no2 + dissolved organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
     <t>total inorganic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total inorganic nitrogen content Units: 
-                    </t>
+    <t>(Optional) Total inorganic nitrogen content (Units: µg/L)</t>
   </si>
   <si>
     <t>total nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total nitrogen content of the sample Units: 
-                    </t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>total particulate carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total particulate carbon content Units: 
-                    </t>
+    <t>(Optional) Total particulate carbon content (Units: µmol/L)</t>
   </si>
   <si>
     <t>total phosphorus</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. can also be measured without filtering, reported as phosphorus Units: 
-                    </t>
+    <t>(Optional) Total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. can also be measured without filtering, reported as phosphorus (Units: µmol/L)</t>
   </si>
   <si>
     <t>miscellaneous parameter</t>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -106,7 +106,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -1351,10 +1351,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="872">
   <si>
     <t>alias</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4181,828 +4184,828 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -5046,1592 +5049,1592 @@
   <sheetData>
     <row r="1" spans="10:60">
       <c r="J1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AC1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BH1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="10:60">
       <c r="J2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BH2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="10:60">
       <c r="J3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AI3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="10:60">
       <c r="J4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="10:60">
       <c r="J5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AI5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="10:60">
       <c r="J6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AI6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="10:60">
       <c r="J7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AI7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="10:60">
       <c r="J8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AI8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="10:60">
       <c r="J9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="10:60">
       <c r="J10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AI10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="10:60">
       <c r="J11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AI11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="10:60">
       <c r="J12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AI12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="10:60">
       <c r="J13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AI13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="10:60">
       <c r="J14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AI14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="10:60">
       <c r="J15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="10:60">
       <c r="J16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="10:35">
       <c r="J17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="10:35">
       <c r="J18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AI18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="10:35">
       <c r="J19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AI19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="10:35">
       <c r="J20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="10:35">
       <c r="J21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AI21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="10:35">
       <c r="J22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AI22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="10:35">
       <c r="J23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AI23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="10:35">
       <c r="J24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AI24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="10:35">
       <c r="J25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="10:35">
       <c r="J26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="10:35">
       <c r="J27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="10:35">
       <c r="J28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="10:35">
       <c r="J29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="10:35">
       <c r="J30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="10:35">
       <c r="AI31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="10:35">
       <c r="AI32" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="35:35">
       <c r="AI33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="35:35">
       <c r="AI34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="35:35">
       <c r="AI35" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="35:35">
       <c r="AI36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="35:35">
       <c r="AI37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="35:35">
       <c r="AI38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="35:35">
       <c r="AI39" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="35:35">
       <c r="AI40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="35:35">
       <c r="AI41" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="35:35">
       <c r="AI42" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="35:35">
       <c r="AI43" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="35:35">
       <c r="AI44" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="35:35">
       <c r="AI45" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="35:35">
       <c r="AI46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="35:35">
       <c r="AI47" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="35:35">
       <c r="AI48" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="35:35">
       <c r="AI49" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="35:35">
       <c r="AI50" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="35:35">
       <c r="AI51" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="35:35">
       <c r="AI52" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="35:35">
       <c r="AI53" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="35:35">
       <c r="AI54" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="35:35">
       <c r="AI55" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="35:35">
       <c r="AI56" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="35:35">
       <c r="AI57" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="35:35">
       <c r="AI58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="35:35">
       <c r="AI59" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="35:35">
       <c r="AI60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="35:35">
       <c r="AI61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="35:35">
       <c r="AI62" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="35:35">
       <c r="AI63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="35:35">
       <c r="AI64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="35:35">
       <c r="AI65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="35:35">
       <c r="AI66" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="35:35">
       <c r="AI67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="35:35">
       <c r="AI68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="35:35">
       <c r="AI69" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="35:35">
       <c r="AI70" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="35:35">
       <c r="AI71" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="35:35">
       <c r="AI72" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="35:35">
       <c r="AI73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="35:35">
       <c r="AI74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="35:35">
       <c r="AI75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="35:35">
       <c r="AI76" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="35:35">
       <c r="AI77" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="35:35">
       <c r="AI78" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="35:35">
       <c r="AI79" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="35:35">
       <c r="AI80" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="35:35">
       <c r="AI81" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="35:35">
       <c r="AI82" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="35:35">
       <c r="AI83" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="35:35">
       <c r="AI84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="35:35">
       <c r="AI85" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="35:35">
       <c r="AI86" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="35:35">
       <c r="AI87" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="35:35">
       <c r="AI88" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="35:35">
       <c r="AI89" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="35:35">
       <c r="AI90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="35:35">
       <c r="AI91" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="35:35">
       <c r="AI92" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="35:35">
       <c r="AI93" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="35:35">
       <c r="AI94" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="35:35">
       <c r="AI95" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="35:35">
       <c r="AI96" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="35:35">
       <c r="AI97" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98" spans="35:35">
       <c r="AI98" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="35:35">
       <c r="AI99" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="35:35">
       <c r="AI100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="35:35">
       <c r="AI101" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="35:35">
       <c r="AI102" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="35:35">
       <c r="AI103" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="35:35">
       <c r="AI104" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="35:35">
       <c r="AI105" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="35:35">
       <c r="AI106" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="35:35">
       <c r="AI107" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="35:35">
       <c r="AI108" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="35:35">
       <c r="AI109" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="110" spans="35:35">
       <c r="AI110" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="35:35">
       <c r="AI111" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="35:35">
       <c r="AI112" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="35:35">
       <c r="AI113" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="35:35">
       <c r="AI114" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="35:35">
       <c r="AI115" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="35:35">
       <c r="AI116" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="35:35">
       <c r="AI117" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="35:35">
       <c r="AI118" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="35:35">
       <c r="AI119" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="35:35">
       <c r="AI120" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="35:35">
       <c r="AI121" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="35:35">
       <c r="AI122" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="35:35">
       <c r="AI123" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="35:35">
       <c r="AI124" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="35:35">
       <c r="AI125" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="35:35">
       <c r="AI126" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="35:35">
       <c r="AI127" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="35:35">
       <c r="AI128" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="129" spans="35:35">
       <c r="AI129" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="35:35">
       <c r="AI130" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="35:35">
       <c r="AI131" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="35:35">
       <c r="AI132" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="35:35">
       <c r="AI133" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="35:35">
       <c r="AI134" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="35:35">
       <c r="AI135" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="35:35">
       <c r="AI136" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="35:35">
       <c r="AI137" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="35:35">
       <c r="AI138" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="35:35">
       <c r="AI139" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="35:35">
       <c r="AI140" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" spans="35:35">
       <c r="AI141" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="35:35">
       <c r="AI142" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="35:35">
       <c r="AI143" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="35:35">
       <c r="AI144" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="35:35">
       <c r="AI145" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="35:35">
       <c r="AI146" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="35:35">
       <c r="AI147" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="35:35">
       <c r="AI148" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="149" spans="35:35">
       <c r="AI149" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="35:35">
       <c r="AI150" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="35:35">
       <c r="AI151" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="35:35">
       <c r="AI152" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="35:35">
       <c r="AI153" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="35:35">
       <c r="AI154" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="35:35">
       <c r="AI155" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="35:35">
       <c r="AI156" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="157" spans="35:35">
       <c r="AI157" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="35:35">
       <c r="AI158" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="159" spans="35:35">
       <c r="AI159" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="35:35">
       <c r="AI160" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="161" spans="35:35">
       <c r="AI161" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" spans="35:35">
       <c r="AI162" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="163" spans="35:35">
       <c r="AI163" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="35:35">
       <c r="AI164" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="165" spans="35:35">
       <c r="AI165" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="166" spans="35:35">
       <c r="AI166" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="167" spans="35:35">
       <c r="AI167" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="168" spans="35:35">
       <c r="AI168" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="35:35">
       <c r="AI169" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="35:35">
       <c r="AI170" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="171" spans="35:35">
       <c r="AI171" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="172" spans="35:35">
       <c r="AI172" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173" spans="35:35">
       <c r="AI173" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" spans="35:35">
       <c r="AI174" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="35:35">
       <c r="AI175" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="35:35">
       <c r="AI176" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="177" spans="35:35">
       <c r="AI177" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="35:35">
       <c r="AI178" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="179" spans="35:35">
       <c r="AI179" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="180" spans="35:35">
       <c r="AI180" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="35:35">
       <c r="AI181" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="182" spans="35:35">
       <c r="AI182" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="183" spans="35:35">
       <c r="AI183" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="184" spans="35:35">
       <c r="AI184" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="185" spans="35:35">
       <c r="AI185" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="35:35">
       <c r="AI186" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="35:35">
       <c r="AI187" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="35:35">
       <c r="AI188" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="35:35">
       <c r="AI189" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="35:35">
       <c r="AI190" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="35:35">
       <c r="AI191" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="35:35">
       <c r="AI192" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="35:35">
       <c r="AI193" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="35:35">
       <c r="AI194" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="35:35">
       <c r="AI195" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="35:35">
       <c r="AI196" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" spans="35:35">
       <c r="AI197" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="35:35">
       <c r="AI198" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="35:35">
       <c r="AI199" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="200" spans="35:35">
       <c r="AI200" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="35:35">
       <c r="AI201" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="202" spans="35:35">
       <c r="AI202" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="203" spans="35:35">
       <c r="AI203" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="35:35">
       <c r="AI204" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="205" spans="35:35">
       <c r="AI205" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="206" spans="35:35">
       <c r="AI206" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="35:35">
       <c r="AI207" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="208" spans="35:35">
       <c r="AI208" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="35:35">
       <c r="AI209" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="210" spans="35:35">
       <c r="AI210" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="35:35">
       <c r="AI211" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="212" spans="35:35">
       <c r="AI212" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="213" spans="35:35">
       <c r="AI213" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="214" spans="35:35">
       <c r="AI214" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="35:35">
       <c r="AI215" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="35:35">
       <c r="AI216" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="217" spans="35:35">
       <c r="AI217" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="35:35">
       <c r="AI218" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="219" spans="35:35">
       <c r="AI219" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" spans="35:35">
       <c r="AI220" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="35:35">
       <c r="AI221" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="222" spans="35:35">
       <c r="AI222" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="223" spans="35:35">
       <c r="AI223" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="224" spans="35:35">
       <c r="AI224" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="225" spans="35:35">
       <c r="AI225" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="35:35">
       <c r="AI226" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="227" spans="35:35">
       <c r="AI227" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="228" spans="35:35">
       <c r="AI228" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="229" spans="35:35">
       <c r="AI229" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="230" spans="35:35">
       <c r="AI230" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="231" spans="35:35">
       <c r="AI231" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232" spans="35:35">
       <c r="AI232" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="233" spans="35:35">
       <c r="AI233" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="35:35">
       <c r="AI234" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="235" spans="35:35">
       <c r="AI235" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="35:35">
       <c r="AI236" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="237" spans="35:35">
       <c r="AI237" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="238" spans="35:35">
       <c r="AI238" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="239" spans="35:35">
       <c r="AI239" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="240" spans="35:35">
       <c r="AI240" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="241" spans="35:35">
       <c r="AI241" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="242" spans="35:35">
       <c r="AI242" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="243" spans="35:35">
       <c r="AI243" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="244" spans="35:35">
       <c r="AI244" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="245" spans="35:35">
       <c r="AI245" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="246" spans="35:35">
       <c r="AI246" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="247" spans="35:35">
       <c r="AI247" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="248" spans="35:35">
       <c r="AI248" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="249" spans="35:35">
       <c r="AI249" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="35:35">
       <c r="AI250" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="251" spans="35:35">
       <c r="AI251" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="35:35">
       <c r="AI252" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="253" spans="35:35">
       <c r="AI253" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="35:35">
       <c r="AI254" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="255" spans="35:35">
       <c r="AI255" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="256" spans="35:35">
       <c r="AI256" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="257" spans="35:35">
       <c r="AI257" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="258" spans="35:35">
       <c r="AI258" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="259" spans="35:35">
       <c r="AI259" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="260" spans="35:35">
       <c r="AI260" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="261" spans="35:35">
       <c r="AI261" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="262" spans="35:35">
       <c r="AI262" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="263" spans="35:35">
       <c r="AI263" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="264" spans="35:35">
       <c r="AI264" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="265" spans="35:35">
       <c r="AI265" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="266" spans="35:35">
       <c r="AI266" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="267" spans="35:35">
       <c r="AI267" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="268" spans="35:35">
       <c r="AI268" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="269" spans="35:35">
       <c r="AI269" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="270" spans="35:35">
       <c r="AI270" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="271" spans="35:35">
       <c r="AI271" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="272" spans="35:35">
       <c r="AI272" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="273" spans="35:35">
       <c r="AI273" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="274" spans="35:35">
       <c r="AI274" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="275" spans="35:35">
       <c r="AI275" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="276" spans="35:35">
       <c r="AI276" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="277" spans="35:35">
       <c r="AI277" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="278" spans="35:35">
       <c r="AI278" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="279" spans="35:35">
       <c r="AI279" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="280" spans="35:35">
       <c r="AI280" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="281" spans="35:35">
       <c r="AI281" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="282" spans="35:35">
       <c r="AI282" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="283" spans="35:35">
       <c r="AI283" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="284" spans="35:35">
       <c r="AI284" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="285" spans="35:35">
       <c r="AI285" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="286" spans="35:35">
       <c r="AI286" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="287" spans="35:35">
       <c r="AI287" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="288" spans="35:35">
       <c r="AI288" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -118,7 +118,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -136,7 +136,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AI$1:$AI$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="873">
   <si>
     <t>alias</t>
   </si>
@@ -1162,6 +1162,78 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>Sampling Campaign</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
+  </si>
+  <si>
+    <t>Sampling Site</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to the site/station where data/sample collection is performed. term list: osd site registry or sdn:c17, http://tinyurl.com/oxux985 example: poseidon-e1-m3a time series station.</t>
+  </si>
+  <si>
+    <t>Sampling Platform</t>
+  </si>
+  <si>
+    <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>Marine Region</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1990,6 +2062,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2030,78 +2105,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>Sampling Campaign</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
-  </si>
-  <si>
-    <t>Sampling Site</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to the site/station where data/sample collection is performed. term list: osd site registry or sdn:c17, http://tinyurl.com/oxux985 example: poseidon-e1-m3a time series station.</t>
-  </si>
-  <si>
-    <t>Sampling Platform</t>
-  </si>
-  <si>
-    <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>Marine Region</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
-  </si>
-  <si>
-    <t>water temperature</t>
-  </si>
-  <si>
-    <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>specific host</t>
@@ -4280,316 +4283,316 @@
         <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>676</v>
+        <v>388</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>678</v>
+        <v>390</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>680</v>
+        <v>392</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>682</v>
+        <v>394</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>684</v>
+        <v>396</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
@@ -4696,316 +4699,316 @@
         <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>673</v>
+        <v>385</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>675</v>
+        <v>387</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>677</v>
+        <v>389</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>679</v>
+        <v>391</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>681</v>
+        <v>393</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>683</v>
+        <v>395</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>685</v>
+        <v>397</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -5028,7 +5031,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
       <formula1>environmentalpackage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
@@ -5041,7 +5044,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:BH288"/>
+  <dimension ref="J1:BH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5066,11 +5069,11 @@
       <c r="AG1" t="s">
         <v>369</v>
       </c>
-      <c r="AI1" t="s">
-        <v>374</v>
+      <c r="AU1" t="s">
+        <v>398</v>
       </c>
       <c r="BH1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="10:60">
@@ -5089,11 +5092,11 @@
       <c r="AC2" t="s">
         <v>359</v>
       </c>
-      <c r="AI2" t="s">
-        <v>375</v>
+      <c r="AU2" t="s">
+        <v>399</v>
       </c>
       <c r="BH2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="10:60">
@@ -5109,8 +5112,8 @@
       <c r="AC3" t="s">
         <v>360</v>
       </c>
-      <c r="AI3" t="s">
-        <v>376</v>
+      <c r="AU3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="10:60">
@@ -5123,8 +5126,8 @@
       <c r="M4" t="s">
         <v>320</v>
       </c>
-      <c r="AI4" t="s">
-        <v>377</v>
+      <c r="AU4" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="10:60">
@@ -5137,8 +5140,8 @@
       <c r="M5" t="s">
         <v>321</v>
       </c>
-      <c r="AI5" t="s">
-        <v>378</v>
+      <c r="AU5" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="10:60">
@@ -5148,8 +5151,8 @@
       <c r="M6" t="s">
         <v>322</v>
       </c>
-      <c r="AI6" t="s">
-        <v>379</v>
+      <c r="AU6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="10:60">
@@ -5159,1482 +5162,1487 @@
       <c r="M7" t="s">
         <v>323</v>
       </c>
-      <c r="AI7" t="s">
-        <v>380</v>
+      <c r="AU7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="10:60">
       <c r="J8" t="s">
         <v>283</v>
       </c>
-      <c r="AI8" t="s">
-        <v>381</v>
+      <c r="AU8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="10:60">
       <c r="J9" t="s">
         <v>284</v>
       </c>
-      <c r="AI9" t="s">
-        <v>382</v>
+      <c r="AU9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="10:60">
       <c r="J10" t="s">
         <v>285</v>
       </c>
-      <c r="AI10" t="s">
-        <v>383</v>
+      <c r="AU10" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="10:60">
       <c r="J11" t="s">
         <v>286</v>
       </c>
-      <c r="AI11" t="s">
-        <v>384</v>
+      <c r="AU11" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="10:60">
       <c r="J12" t="s">
         <v>287</v>
       </c>
-      <c r="AI12" t="s">
-        <v>385</v>
+      <c r="AU12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="10:60">
       <c r="J13" t="s">
         <v>288</v>
       </c>
-      <c r="AI13" t="s">
-        <v>386</v>
+      <c r="AU13" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="10:60">
       <c r="J14" t="s">
         <v>289</v>
       </c>
-      <c r="AI14" t="s">
-        <v>387</v>
+      <c r="AU14" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="10:60">
       <c r="J15" t="s">
         <v>290</v>
       </c>
-      <c r="AI15" t="s">
-        <v>388</v>
+      <c r="AU15" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="10:60">
       <c r="J16" t="s">
         <v>291</v>
       </c>
-      <c r="AI16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="10:35">
+      <c r="AU16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="10:47">
       <c r="J17" t="s">
         <v>292</v>
       </c>
-      <c r="AI17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="10:35">
+      <c r="AU17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="10:47">
       <c r="J18" t="s">
         <v>293</v>
       </c>
-      <c r="AI18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="10:35">
+      <c r="AU18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="10:47">
       <c r="J19" t="s">
         <v>294</v>
       </c>
-      <c r="AI19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="10:35">
+      <c r="AU19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="10:47">
       <c r="J20" t="s">
         <v>295</v>
       </c>
-      <c r="AI20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="10:35">
+      <c r="AU20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="10:47">
       <c r="J21" t="s">
         <v>296</v>
       </c>
-      <c r="AI21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="10:35">
+      <c r="AU21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="10:47">
       <c r="J22" t="s">
         <v>297</v>
       </c>
-      <c r="AI22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="10:35">
+      <c r="AU22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="10:47">
       <c r="J23" t="s">
         <v>298</v>
       </c>
-      <c r="AI23" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="24" spans="10:35">
+      <c r="AU23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="10:47">
       <c r="J24" t="s">
         <v>299</v>
       </c>
-      <c r="AI24" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="10:35">
+      <c r="AU24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="10:47">
       <c r="J25" t="s">
         <v>300</v>
       </c>
-      <c r="AI25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="10:35">
+      <c r="AU25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="10:47">
       <c r="J26" t="s">
         <v>301</v>
       </c>
-      <c r="AI26" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="27" spans="10:35">
+      <c r="AU26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="10:47">
       <c r="J27" t="s">
         <v>302</v>
       </c>
-      <c r="AI27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="10:35">
+      <c r="AU27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="10:47">
       <c r="J28" t="s">
         <v>303</v>
       </c>
-      <c r="AI28" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="10:35">
+      <c r="AU28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="10:47">
       <c r="J29" t="s">
         <v>304</v>
       </c>
-      <c r="AI29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="30" spans="10:35">
+      <c r="AU29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="10:47">
       <c r="J30" t="s">
         <v>305</v>
       </c>
-      <c r="AI30" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="10:35">
-      <c r="AI31" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="10:35">
-      <c r="AI32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="35:35">
-      <c r="AI33" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="34" spans="35:35">
-      <c r="AI34" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="35:35">
-      <c r="AI35" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="36" spans="35:35">
-      <c r="AI36" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="35:35">
-      <c r="AI37" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="35:35">
-      <c r="AI38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="35:35">
-      <c r="AI39" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="35:35">
-      <c r="AI40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="35:35">
-      <c r="AI41" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="35:35">
-      <c r="AI42" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="35:35">
-      <c r="AI43" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="44" spans="35:35">
-      <c r="AI44" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="35:35">
-      <c r="AI45" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="46" spans="35:35">
-      <c r="AI46" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="35:35">
-      <c r="AI47" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="35:35">
-      <c r="AI48" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="49" spans="35:35">
-      <c r="AI49" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="35:35">
-      <c r="AI50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="35:35">
-      <c r="AI51" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="52" spans="35:35">
-      <c r="AI52" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="53" spans="35:35">
-      <c r="AI53" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="54" spans="35:35">
-      <c r="AI54" t="s">
+      <c r="AU30" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="35:35">
-      <c r="AI55" t="s">
+    <row r="31" spans="10:47">
+      <c r="AU31" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="35:35">
-      <c r="AI56" t="s">
+    <row r="32" spans="10:47">
+      <c r="AU32" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="57" spans="35:35">
-      <c r="AI57" t="s">
+    <row r="33" spans="47:47">
+      <c r="AU33" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="35:35">
-      <c r="AI58" t="s">
+    <row r="34" spans="47:47">
+      <c r="AU34" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="35:35">
-      <c r="AI59" t="s">
+    <row r="35" spans="47:47">
+      <c r="AU35" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="35:35">
-      <c r="AI60" t="s">
+    <row r="36" spans="47:47">
+      <c r="AU36" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="35:35">
-      <c r="AI61" t="s">
+    <row r="37" spans="47:47">
+      <c r="AU37" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="35:35">
-      <c r="AI62" t="s">
+    <row r="38" spans="47:47">
+      <c r="AU38" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="63" spans="35:35">
-      <c r="AI63" t="s">
+    <row r="39" spans="47:47">
+      <c r="AU39" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="35:35">
-      <c r="AI64" t="s">
+    <row r="40" spans="47:47">
+      <c r="AU40" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="65" spans="35:35">
-      <c r="AI65" t="s">
+    <row r="41" spans="47:47">
+      <c r="AU41" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="35:35">
-      <c r="AI66" t="s">
+    <row r="42" spans="47:47">
+      <c r="AU42" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="67" spans="35:35">
-      <c r="AI67" t="s">
+    <row r="43" spans="47:47">
+      <c r="AU43" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="35:35">
-      <c r="AI68" t="s">
+    <row r="44" spans="47:47">
+      <c r="AU44" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="35:35">
-      <c r="AI69" t="s">
+    <row r="45" spans="47:47">
+      <c r="AU45" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="35:35">
-      <c r="AI70" t="s">
+    <row r="46" spans="47:47">
+      <c r="AU46" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="35:35">
-      <c r="AI71" t="s">
+    <row r="47" spans="47:47">
+      <c r="AU47" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="35:35">
-      <c r="AI72" t="s">
+    <row r="48" spans="47:47">
+      <c r="AU48" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="35:35">
-      <c r="AI73" t="s">
+    <row r="49" spans="47:47">
+      <c r="AU49" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="35:35">
-      <c r="AI74" t="s">
+    <row r="50" spans="47:47">
+      <c r="AU50" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="35:35">
-      <c r="AI75" t="s">
+    <row r="51" spans="47:47">
+      <c r="AU51" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="76" spans="35:35">
-      <c r="AI76" t="s">
+    <row r="52" spans="47:47">
+      <c r="AU52" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="35:35">
-      <c r="AI77" t="s">
+    <row r="53" spans="47:47">
+      <c r="AU53" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="35:35">
-      <c r="AI78" t="s">
+    <row r="54" spans="47:47">
+      <c r="AU54" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="35:35">
-      <c r="AI79" t="s">
+    <row r="55" spans="47:47">
+      <c r="AU55" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="80" spans="35:35">
-      <c r="AI80" t="s">
+    <row r="56" spans="47:47">
+      <c r="AU56" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="35:35">
-      <c r="AI81" t="s">
+    <row r="57" spans="47:47">
+      <c r="AU57" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="35:35">
-      <c r="AI82" t="s">
+    <row r="58" spans="47:47">
+      <c r="AU58" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="35:35">
-      <c r="AI83" t="s">
+    <row r="59" spans="47:47">
+      <c r="AU59" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="35:35">
-      <c r="AI84" t="s">
+    <row r="60" spans="47:47">
+      <c r="AU60" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="85" spans="35:35">
-      <c r="AI85" t="s">
+    <row r="61" spans="47:47">
+      <c r="AU61" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="35:35">
-      <c r="AI86" t="s">
+    <row r="62" spans="47:47">
+      <c r="AU62" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="35:35">
-      <c r="AI87" t="s">
+    <row r="63" spans="47:47">
+      <c r="AU63" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="35:35">
-      <c r="AI88" t="s">
+    <row r="64" spans="47:47">
+      <c r="AU64" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="35:35">
-      <c r="AI89" t="s">
+    <row r="65" spans="47:47">
+      <c r="AU65" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="90" spans="35:35">
-      <c r="AI90" t="s">
+    <row r="66" spans="47:47">
+      <c r="AU66" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="35:35">
-      <c r="AI91" t="s">
+    <row r="67" spans="47:47">
+      <c r="AU67" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="92" spans="35:35">
-      <c r="AI92" t="s">
+    <row r="68" spans="47:47">
+      <c r="AU68" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="35:35">
-      <c r="AI93" t="s">
+    <row r="69" spans="47:47">
+      <c r="AU69" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="35:35">
-      <c r="AI94" t="s">
+    <row r="70" spans="47:47">
+      <c r="AU70" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="35:35">
-      <c r="AI95" t="s">
+    <row r="71" spans="47:47">
+      <c r="AU71" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="35:35">
-      <c r="AI96" t="s">
+    <row r="72" spans="47:47">
+      <c r="AU72" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="35:35">
-      <c r="AI97" t="s">
+    <row r="73" spans="47:47">
+      <c r="AU73" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="35:35">
-      <c r="AI98" t="s">
+    <row r="74" spans="47:47">
+      <c r="AU74" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="35:35">
-      <c r="AI99" t="s">
+    <row r="75" spans="47:47">
+      <c r="AU75" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="35:35">
-      <c r="AI100" t="s">
+    <row r="76" spans="47:47">
+      <c r="AU76" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="35:35">
-      <c r="AI101" t="s">
+    <row r="77" spans="47:47">
+      <c r="AU77" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="35:35">
-      <c r="AI102" t="s">
+    <row r="78" spans="47:47">
+      <c r="AU78" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="35:35">
-      <c r="AI103" t="s">
+    <row r="79" spans="47:47">
+      <c r="AU79" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="104" spans="35:35">
-      <c r="AI104" t="s">
+    <row r="80" spans="47:47">
+      <c r="AU80" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="105" spans="35:35">
-      <c r="AI105" t="s">
+    <row r="81" spans="47:47">
+      <c r="AU81" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="106" spans="35:35">
-      <c r="AI106" t="s">
+    <row r="82" spans="47:47">
+      <c r="AU82" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="107" spans="35:35">
-      <c r="AI107" t="s">
+    <row r="83" spans="47:47">
+      <c r="AU83" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="35:35">
-      <c r="AI108" t="s">
+    <row r="84" spans="47:47">
+      <c r="AU84" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="109" spans="35:35">
-      <c r="AI109" t="s">
+    <row r="85" spans="47:47">
+      <c r="AU85" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="110" spans="35:35">
-      <c r="AI110" t="s">
+    <row r="86" spans="47:47">
+      <c r="AU86" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="35:35">
-      <c r="AI111" t="s">
+    <row r="87" spans="47:47">
+      <c r="AU87" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="112" spans="35:35">
-      <c r="AI112" t="s">
+    <row r="88" spans="47:47">
+      <c r="AU88" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="35:35">
-      <c r="AI113" t="s">
+    <row r="89" spans="47:47">
+      <c r="AU89" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="35:35">
-      <c r="AI114" t="s">
+    <row r="90" spans="47:47">
+      <c r="AU90" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="115" spans="35:35">
-      <c r="AI115" t="s">
+    <row r="91" spans="47:47">
+      <c r="AU91" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="116" spans="35:35">
-      <c r="AI116" t="s">
+    <row r="92" spans="47:47">
+      <c r="AU92" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="35:35">
-      <c r="AI117" t="s">
+    <row r="93" spans="47:47">
+      <c r="AU93" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="118" spans="35:35">
-      <c r="AI118" t="s">
+    <row r="94" spans="47:47">
+      <c r="AU94" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="119" spans="35:35">
-      <c r="AI119" t="s">
+    <row r="95" spans="47:47">
+      <c r="AU95" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="120" spans="35:35">
-      <c r="AI120" t="s">
+    <row r="96" spans="47:47">
+      <c r="AU96" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="121" spans="35:35">
-      <c r="AI121" t="s">
+    <row r="97" spans="47:47">
+      <c r="AU97" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="35:35">
-      <c r="AI122" t="s">
+    <row r="98" spans="47:47">
+      <c r="AU98" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="35:35">
-      <c r="AI123" t="s">
+    <row r="99" spans="47:47">
+      <c r="AU99" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="124" spans="35:35">
-      <c r="AI124" t="s">
+    <row r="100" spans="47:47">
+      <c r="AU100" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="35:35">
-      <c r="AI125" t="s">
+    <row r="101" spans="47:47">
+      <c r="AU101" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="35:35">
-      <c r="AI126" t="s">
+    <row r="102" spans="47:47">
+      <c r="AU102" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="127" spans="35:35">
-      <c r="AI127" t="s">
+    <row r="103" spans="47:47">
+      <c r="AU103" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="35:35">
-      <c r="AI128" t="s">
+    <row r="104" spans="47:47">
+      <c r="AU104" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="35:35">
-      <c r="AI129" t="s">
+    <row r="105" spans="47:47">
+      <c r="AU105" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="35:35">
-      <c r="AI130" t="s">
+    <row r="106" spans="47:47">
+      <c r="AU106" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="35:35">
-      <c r="AI131" t="s">
+    <row r="107" spans="47:47">
+      <c r="AU107" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="132" spans="35:35">
-      <c r="AI132" t="s">
+    <row r="108" spans="47:47">
+      <c r="AU108" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="35:35">
-      <c r="AI133" t="s">
+    <row r="109" spans="47:47">
+      <c r="AU109" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="134" spans="35:35">
-      <c r="AI134" t="s">
+    <row r="110" spans="47:47">
+      <c r="AU110" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="135" spans="35:35">
-      <c r="AI135" t="s">
+    <row r="111" spans="47:47">
+      <c r="AU111" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="136" spans="35:35">
-      <c r="AI136" t="s">
+    <row r="112" spans="47:47">
+      <c r="AU112" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="137" spans="35:35">
-      <c r="AI137" t="s">
+    <row r="113" spans="47:47">
+      <c r="AU113" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="35:35">
-      <c r="AI138" t="s">
+    <row r="114" spans="47:47">
+      <c r="AU114" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="139" spans="35:35">
-      <c r="AI139" t="s">
+    <row r="115" spans="47:47">
+      <c r="AU115" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="140" spans="35:35">
-      <c r="AI140" t="s">
+    <row r="116" spans="47:47">
+      <c r="AU116" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="141" spans="35:35">
-      <c r="AI141" t="s">
+    <row r="117" spans="47:47">
+      <c r="AU117" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="142" spans="35:35">
-      <c r="AI142" t="s">
+    <row r="118" spans="47:47">
+      <c r="AU118" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="143" spans="35:35">
-      <c r="AI143" t="s">
+    <row r="119" spans="47:47">
+      <c r="AU119" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="144" spans="35:35">
-      <c r="AI144" t="s">
+    <row r="120" spans="47:47">
+      <c r="AU120" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="145" spans="35:35">
-      <c r="AI145" t="s">
+    <row r="121" spans="47:47">
+      <c r="AU121" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="146" spans="35:35">
-      <c r="AI146" t="s">
+    <row r="122" spans="47:47">
+      <c r="AU122" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="147" spans="35:35">
-      <c r="AI147" t="s">
+    <row r="123" spans="47:47">
+      <c r="AU123" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="148" spans="35:35">
-      <c r="AI148" t="s">
+    <row r="124" spans="47:47">
+      <c r="AU124" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="149" spans="35:35">
-      <c r="AI149" t="s">
+    <row r="125" spans="47:47">
+      <c r="AU125" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="150" spans="35:35">
-      <c r="AI150" t="s">
+    <row r="126" spans="47:47">
+      <c r="AU126" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="151" spans="35:35">
-      <c r="AI151" t="s">
+    <row r="127" spans="47:47">
+      <c r="AU127" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="35:35">
-      <c r="AI152" t="s">
+    <row r="128" spans="47:47">
+      <c r="AU128" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="153" spans="35:35">
-      <c r="AI153" t="s">
+    <row r="129" spans="47:47">
+      <c r="AU129" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="154" spans="35:35">
-      <c r="AI154" t="s">
+    <row r="130" spans="47:47">
+      <c r="AU130" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="155" spans="35:35">
-      <c r="AI155" t="s">
+    <row r="131" spans="47:47">
+      <c r="AU131" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="156" spans="35:35">
-      <c r="AI156" t="s">
+    <row r="132" spans="47:47">
+      <c r="AU132" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="157" spans="35:35">
-      <c r="AI157" t="s">
+    <row r="133" spans="47:47">
+      <c r="AU133" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="158" spans="35:35">
-      <c r="AI158" t="s">
+    <row r="134" spans="47:47">
+      <c r="AU134" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="159" spans="35:35">
-      <c r="AI159" t="s">
+    <row r="135" spans="47:47">
+      <c r="AU135" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="35:35">
-      <c r="AI160" t="s">
+    <row r="136" spans="47:47">
+      <c r="AU136" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="161" spans="35:35">
-      <c r="AI161" t="s">
+    <row r="137" spans="47:47">
+      <c r="AU137" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="162" spans="35:35">
-      <c r="AI162" t="s">
+    <row r="138" spans="47:47">
+      <c r="AU138" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="163" spans="35:35">
-      <c r="AI163" t="s">
+    <row r="139" spans="47:47">
+      <c r="AU139" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="164" spans="35:35">
-      <c r="AI164" t="s">
+    <row r="140" spans="47:47">
+      <c r="AU140" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="165" spans="35:35">
-      <c r="AI165" t="s">
+    <row r="141" spans="47:47">
+      <c r="AU141" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="166" spans="35:35">
-      <c r="AI166" t="s">
+    <row r="142" spans="47:47">
+      <c r="AU142" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="167" spans="35:35">
-      <c r="AI167" t="s">
+    <row r="143" spans="47:47">
+      <c r="AU143" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="168" spans="35:35">
-      <c r="AI168" t="s">
+    <row r="144" spans="47:47">
+      <c r="AU144" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="169" spans="35:35">
-      <c r="AI169" t="s">
+    <row r="145" spans="47:47">
+      <c r="AU145" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="35:35">
-      <c r="AI170" t="s">
+    <row r="146" spans="47:47">
+      <c r="AU146" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="171" spans="35:35">
-      <c r="AI171" t="s">
+    <row r="147" spans="47:47">
+      <c r="AU147" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="172" spans="35:35">
-      <c r="AI172" t="s">
+    <row r="148" spans="47:47">
+      <c r="AU148" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="173" spans="35:35">
-      <c r="AI173" t="s">
+    <row r="149" spans="47:47">
+      <c r="AU149" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="174" spans="35:35">
-      <c r="AI174" t="s">
+    <row r="150" spans="47:47">
+      <c r="AU150" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="175" spans="35:35">
-      <c r="AI175" t="s">
+    <row r="151" spans="47:47">
+      <c r="AU151" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="35:35">
-      <c r="AI176" t="s">
+    <row r="152" spans="47:47">
+      <c r="AU152" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="177" spans="35:35">
-      <c r="AI177" t="s">
+    <row r="153" spans="47:47">
+      <c r="AU153" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="178" spans="35:35">
-      <c r="AI178" t="s">
+    <row r="154" spans="47:47">
+      <c r="AU154" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="179" spans="35:35">
-      <c r="AI179" t="s">
+    <row r="155" spans="47:47">
+      <c r="AU155" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="180" spans="35:35">
-      <c r="AI180" t="s">
+    <row r="156" spans="47:47">
+      <c r="AU156" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="181" spans="35:35">
-      <c r="AI181" t="s">
+    <row r="157" spans="47:47">
+      <c r="AU157" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="182" spans="35:35">
-      <c r="AI182" t="s">
+    <row r="158" spans="47:47">
+      <c r="AU158" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="183" spans="35:35">
-      <c r="AI183" t="s">
+    <row r="159" spans="47:47">
+      <c r="AU159" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="184" spans="35:35">
-      <c r="AI184" t="s">
+    <row r="160" spans="47:47">
+      <c r="AU160" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="185" spans="35:35">
-      <c r="AI185" t="s">
+    <row r="161" spans="47:47">
+      <c r="AU161" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="186" spans="35:35">
-      <c r="AI186" t="s">
+    <row r="162" spans="47:47">
+      <c r="AU162" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="35:35">
-      <c r="AI187" t="s">
+    <row r="163" spans="47:47">
+      <c r="AU163" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="188" spans="35:35">
-      <c r="AI188" t="s">
+    <row r="164" spans="47:47">
+      <c r="AU164" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="189" spans="35:35">
-      <c r="AI189" t="s">
+    <row r="165" spans="47:47">
+      <c r="AU165" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="190" spans="35:35">
-      <c r="AI190" t="s">
+    <row r="166" spans="47:47">
+      <c r="AU166" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="191" spans="35:35">
-      <c r="AI191" t="s">
+    <row r="167" spans="47:47">
+      <c r="AU167" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="192" spans="35:35">
-      <c r="AI192" t="s">
+    <row r="168" spans="47:47">
+      <c r="AU168" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="193" spans="35:35">
-      <c r="AI193" t="s">
+    <row r="169" spans="47:47">
+      <c r="AU169" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="194" spans="35:35">
-      <c r="AI194" t="s">
+    <row r="170" spans="47:47">
+      <c r="AU170" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="195" spans="35:35">
-      <c r="AI195" t="s">
+    <row r="171" spans="47:47">
+      <c r="AU171" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="196" spans="35:35">
-      <c r="AI196" t="s">
+    <row r="172" spans="47:47">
+      <c r="AU172" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="197" spans="35:35">
-      <c r="AI197" t="s">
+    <row r="173" spans="47:47">
+      <c r="AU173" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="198" spans="35:35">
-      <c r="AI198" t="s">
+    <row r="174" spans="47:47">
+      <c r="AU174" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="199" spans="35:35">
-      <c r="AI199" t="s">
+    <row r="175" spans="47:47">
+      <c r="AU175" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="200" spans="35:35">
-      <c r="AI200" t="s">
+    <row r="176" spans="47:47">
+      <c r="AU176" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="201" spans="35:35">
-      <c r="AI201" t="s">
+    <row r="177" spans="47:47">
+      <c r="AU177" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="202" spans="35:35">
-      <c r="AI202" t="s">
+    <row r="178" spans="47:47">
+      <c r="AU178" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="203" spans="35:35">
-      <c r="AI203" t="s">
+    <row r="179" spans="47:47">
+      <c r="AU179" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="204" spans="35:35">
-      <c r="AI204" t="s">
+    <row r="180" spans="47:47">
+      <c r="AU180" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="205" spans="35:35">
-      <c r="AI205" t="s">
+    <row r="181" spans="47:47">
+      <c r="AU181" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="206" spans="35:35">
-      <c r="AI206" t="s">
+    <row r="182" spans="47:47">
+      <c r="AU182" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="207" spans="35:35">
-      <c r="AI207" t="s">
+    <row r="183" spans="47:47">
+      <c r="AU183" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="208" spans="35:35">
-      <c r="AI208" t="s">
+    <row r="184" spans="47:47">
+      <c r="AU184" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="209" spans="35:35">
-      <c r="AI209" t="s">
+    <row r="185" spans="47:47">
+      <c r="AU185" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="210" spans="35:35">
-      <c r="AI210" t="s">
+    <row r="186" spans="47:47">
+      <c r="AU186" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="211" spans="35:35">
-      <c r="AI211" t="s">
+    <row r="187" spans="47:47">
+      <c r="AU187" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="212" spans="35:35">
-      <c r="AI212" t="s">
+    <row r="188" spans="47:47">
+      <c r="AU188" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="213" spans="35:35">
-      <c r="AI213" t="s">
+    <row r="189" spans="47:47">
+      <c r="AU189" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="214" spans="35:35">
-      <c r="AI214" t="s">
+    <row r="190" spans="47:47">
+      <c r="AU190" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="215" spans="35:35">
-      <c r="AI215" t="s">
+    <row r="191" spans="47:47">
+      <c r="AU191" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="216" spans="35:35">
-      <c r="AI216" t="s">
+    <row r="192" spans="47:47">
+      <c r="AU192" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="217" spans="35:35">
-      <c r="AI217" t="s">
+    <row r="193" spans="47:47">
+      <c r="AU193" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="218" spans="35:35">
-      <c r="AI218" t="s">
+    <row r="194" spans="47:47">
+      <c r="AU194" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="219" spans="35:35">
-      <c r="AI219" t="s">
+    <row r="195" spans="47:47">
+      <c r="AU195" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="220" spans="35:35">
-      <c r="AI220" t="s">
+    <row r="196" spans="47:47">
+      <c r="AU196" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="35:35">
-      <c r="AI221" t="s">
+    <row r="197" spans="47:47">
+      <c r="AU197" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="222" spans="35:35">
-      <c r="AI222" t="s">
+    <row r="198" spans="47:47">
+      <c r="AU198" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="223" spans="35:35">
-      <c r="AI223" t="s">
+    <row r="199" spans="47:47">
+      <c r="AU199" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="224" spans="35:35">
-      <c r="AI224" t="s">
+    <row r="200" spans="47:47">
+      <c r="AU200" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="225" spans="35:35">
-      <c r="AI225" t="s">
+    <row r="201" spans="47:47">
+      <c r="AU201" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="226" spans="35:35">
-      <c r="AI226" t="s">
+    <row r="202" spans="47:47">
+      <c r="AU202" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="227" spans="35:35">
-      <c r="AI227" t="s">
+    <row r="203" spans="47:47">
+      <c r="AU203" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="228" spans="35:35">
-      <c r="AI228" t="s">
+    <row r="204" spans="47:47">
+      <c r="AU204" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="229" spans="35:35">
-      <c r="AI229" t="s">
+    <row r="205" spans="47:47">
+      <c r="AU205" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="230" spans="35:35">
-      <c r="AI230" t="s">
+    <row r="206" spans="47:47">
+      <c r="AU206" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="231" spans="35:35">
-      <c r="AI231" t="s">
+    <row r="207" spans="47:47">
+      <c r="AU207" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="232" spans="35:35">
-      <c r="AI232" t="s">
+    <row r="208" spans="47:47">
+      <c r="AU208" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="233" spans="35:35">
-      <c r="AI233" t="s">
+    <row r="209" spans="47:47">
+      <c r="AU209" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="234" spans="35:35">
-      <c r="AI234" t="s">
+    <row r="210" spans="47:47">
+      <c r="AU210" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="235" spans="35:35">
-      <c r="AI235" t="s">
+    <row r="211" spans="47:47">
+      <c r="AU211" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="236" spans="35:35">
-      <c r="AI236" t="s">
+    <row r="212" spans="47:47">
+      <c r="AU212" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="237" spans="35:35">
-      <c r="AI237" t="s">
+    <row r="213" spans="47:47">
+      <c r="AU213" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="238" spans="35:35">
-      <c r="AI238" t="s">
+    <row r="214" spans="47:47">
+      <c r="AU214" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="239" spans="35:35">
-      <c r="AI239" t="s">
+    <row r="215" spans="47:47">
+      <c r="AU215" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="240" spans="35:35">
-      <c r="AI240" t="s">
+    <row r="216" spans="47:47">
+      <c r="AU216" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="241" spans="35:35">
-      <c r="AI241" t="s">
+    <row r="217" spans="47:47">
+      <c r="AU217" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="242" spans="35:35">
-      <c r="AI242" t="s">
+    <row r="218" spans="47:47">
+      <c r="AU218" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="243" spans="35:35">
-      <c r="AI243" t="s">
+    <row r="219" spans="47:47">
+      <c r="AU219" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="244" spans="35:35">
-      <c r="AI244" t="s">
+    <row r="220" spans="47:47">
+      <c r="AU220" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="245" spans="35:35">
-      <c r="AI245" t="s">
+    <row r="221" spans="47:47">
+      <c r="AU221" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="246" spans="35:35">
-      <c r="AI246" t="s">
+    <row r="222" spans="47:47">
+      <c r="AU222" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="247" spans="35:35">
-      <c r="AI247" t="s">
+    <row r="223" spans="47:47">
+      <c r="AU223" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="248" spans="35:35">
-      <c r="AI248" t="s">
+    <row r="224" spans="47:47">
+      <c r="AU224" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="249" spans="35:35">
-      <c r="AI249" t="s">
+    <row r="225" spans="47:47">
+      <c r="AU225" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="250" spans="35:35">
-      <c r="AI250" t="s">
+    <row r="226" spans="47:47">
+      <c r="AU226" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="251" spans="35:35">
-      <c r="AI251" t="s">
+    <row r="227" spans="47:47">
+      <c r="AU227" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="252" spans="35:35">
-      <c r="AI252" t="s">
+    <row r="228" spans="47:47">
+      <c r="AU228" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="253" spans="35:35">
-      <c r="AI253" t="s">
+    <row r="229" spans="47:47">
+      <c r="AU229" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="254" spans="35:35">
-      <c r="AI254" t="s">
+    <row r="230" spans="47:47">
+      <c r="AU230" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="255" spans="35:35">
-      <c r="AI255" t="s">
+    <row r="231" spans="47:47">
+      <c r="AU231" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="256" spans="35:35">
-      <c r="AI256" t="s">
+    <row r="232" spans="47:47">
+      <c r="AU232" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="257" spans="35:35">
-      <c r="AI257" t="s">
+    <row r="233" spans="47:47">
+      <c r="AU233" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="258" spans="35:35">
-      <c r="AI258" t="s">
+    <row r="234" spans="47:47">
+      <c r="AU234" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="259" spans="35:35">
-      <c r="AI259" t="s">
+    <row r="235" spans="47:47">
+      <c r="AU235" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="260" spans="35:35">
-      <c r="AI260" t="s">
+    <row r="236" spans="47:47">
+      <c r="AU236" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="261" spans="35:35">
-      <c r="AI261" t="s">
+    <row r="237" spans="47:47">
+      <c r="AU237" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="262" spans="35:35">
-      <c r="AI262" t="s">
+    <row r="238" spans="47:47">
+      <c r="AU238" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="263" spans="35:35">
-      <c r="AI263" t="s">
+    <row r="239" spans="47:47">
+      <c r="AU239" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="264" spans="35:35">
-      <c r="AI264" t="s">
+    <row r="240" spans="47:47">
+      <c r="AU240" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="265" spans="35:35">
-      <c r="AI265" t="s">
+    <row r="241" spans="47:47">
+      <c r="AU241" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="266" spans="35:35">
-      <c r="AI266" t="s">
+    <row r="242" spans="47:47">
+      <c r="AU242" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="267" spans="35:35">
-      <c r="AI267" t="s">
+    <row r="243" spans="47:47">
+      <c r="AU243" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="268" spans="35:35">
-      <c r="AI268" t="s">
+    <row r="244" spans="47:47">
+      <c r="AU244" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="269" spans="35:35">
-      <c r="AI269" t="s">
+    <row r="245" spans="47:47">
+      <c r="AU245" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="270" spans="35:35">
-      <c r="AI270" t="s">
+    <row r="246" spans="47:47">
+      <c r="AU246" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="271" spans="35:35">
-      <c r="AI271" t="s">
+    <row r="247" spans="47:47">
+      <c r="AU247" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="272" spans="35:35">
-      <c r="AI272" t="s">
+    <row r="248" spans="47:47">
+      <c r="AU248" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="273" spans="35:35">
-      <c r="AI273" t="s">
+    <row r="249" spans="47:47">
+      <c r="AU249" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="35:35">
-      <c r="AI274" t="s">
+    <row r="250" spans="47:47">
+      <c r="AU250" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="275" spans="35:35">
-      <c r="AI275" t="s">
+    <row r="251" spans="47:47">
+      <c r="AU251" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="276" spans="35:35">
-      <c r="AI276" t="s">
+    <row r="252" spans="47:47">
+      <c r="AU252" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="277" spans="35:35">
-      <c r="AI277" t="s">
+    <row r="253" spans="47:47">
+      <c r="AU253" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="278" spans="35:35">
-      <c r="AI278" t="s">
+    <row r="254" spans="47:47">
+      <c r="AU254" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="279" spans="35:35">
-      <c r="AI279" t="s">
+    <row r="255" spans="47:47">
+      <c r="AU255" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="280" spans="35:35">
-      <c r="AI280" t="s">
+    <row r="256" spans="47:47">
+      <c r="AU256" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="281" spans="35:35">
-      <c r="AI281" t="s">
+    <row r="257" spans="47:47">
+      <c r="AU257" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="282" spans="35:35">
-      <c r="AI282" t="s">
+    <row r="258" spans="47:47">
+      <c r="AU258" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="283" spans="35:35">
-      <c r="AI283" t="s">
+    <row r="259" spans="47:47">
+      <c r="AU259" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="284" spans="35:35">
-      <c r="AI284" t="s">
+    <row r="260" spans="47:47">
+      <c r="AU260" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="285" spans="35:35">
-      <c r="AI285" t="s">
+    <row r="261" spans="47:47">
+      <c r="AU261" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="286" spans="35:35">
-      <c r="AI286" t="s">
+    <row r="262" spans="47:47">
+      <c r="AU262" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="287" spans="35:35">
-      <c r="AI287" t="s">
+    <row r="263" spans="47:47">
+      <c r="AU263" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="288" spans="35:35">
-      <c r="AI288" t="s">
+    <row r="264" spans="47:47">
+      <c r="AU264" t="s">
         <v>661</v>
+      </c>
+    </row>
+    <row r="265" spans="47:47">
+      <c r="AU265" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="266" spans="47:47">
+      <c r="AU266" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="267" spans="47:47">
+      <c r="AU267" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="268" spans="47:47">
+      <c r="AU268" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="269" spans="47:47">
+      <c r="AU269" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="270" spans="47:47">
+      <c r="AU270" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="271" spans="47:47">
+      <c r="AU271" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="272" spans="47:47">
+      <c r="AU272" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="273" spans="47:47">
+      <c r="AU273" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="274" spans="47:47">
+      <c r="AU274" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="275" spans="47:47">
+      <c r="AU275" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="276" spans="47:47">
+      <c r="AU276" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="277" spans="47:47">
+      <c r="AU277" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="278" spans="47:47">
+      <c r="AU278" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="279" spans="47:47">
+      <c r="AU279" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="280" spans="47:47">
+      <c r="AU280" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="281" spans="47:47">
+      <c r="AU281" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="282" spans="47:47">
+      <c r="AU282" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="283" spans="47:47">
+      <c r="AU283" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="284" spans="47:47">
+      <c r="AU284" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="285" spans="47:47">
+      <c r="AU285" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="286" spans="47:47">
+      <c r="AU286" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="287" spans="47:47">
+      <c r="AU287" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="288" spans="47:47">
+      <c r="AU288" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="289" spans="47:47">
+      <c r="AU289" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="874">
   <si>
     <t>alias</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3195,7 +3198,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3239,7 +3242,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3269,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3978,6 +3981,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4002,27 +4010,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4045,122 +4053,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4187,828 +4195,828 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -5052,1597 +5060,1597 @@
   <sheetData>
     <row r="1" spans="10:60">
       <c r="J1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AU1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BH1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="10:60">
       <c r="J2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AU2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BH2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="10:60">
       <c r="J3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AU3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="10:60">
       <c r="J4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AU4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="10:60">
       <c r="J5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AU5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="10:60">
       <c r="J6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AU6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="10:60">
       <c r="J7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AU7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="10:60">
       <c r="J8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AU8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="10:60">
       <c r="J9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="10:60">
       <c r="J10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AU10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="10:60">
       <c r="J11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="10:60">
       <c r="J12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="10:60">
       <c r="J13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="10:60">
       <c r="J14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="10:60">
       <c r="J15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="10:60">
       <c r="J16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="10:47">
       <c r="J17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="10:47">
       <c r="J18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="10:47">
       <c r="J19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="10:47">
       <c r="J20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="10:47">
       <c r="J21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="10:47">
       <c r="J22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AU22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="10:47">
       <c r="J23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AU23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="10:47">
       <c r="J24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AU24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="10:47">
       <c r="J25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AU25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="10:47">
       <c r="J26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AU26" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="10:47">
       <c r="J27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AU27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="10:47">
       <c r="J28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AU28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="10:47">
       <c r="J29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AU29" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="10:47">
       <c r="J30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AU30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="10:47">
       <c r="AU31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="10:47">
       <c r="AU32" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="875">
   <si>
     <t>alias</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3198,7 +3201,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3242,7 +3245,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3272,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3986,6 +3989,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4010,27 +4018,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4053,122 +4061,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4195,828 +4203,828 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -5060,1597 +5068,1597 @@
   <sheetData>
     <row r="1" spans="10:60">
       <c r="J1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AU1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BH1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="10:60">
       <c r="J2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AC2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AU2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BH2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="10:60">
       <c r="J3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AU3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="10:60">
       <c r="J4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AU4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="10:60">
       <c r="J5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AU5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="10:60">
       <c r="J6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AU6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="10:60">
       <c r="J7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AU7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="10:60">
       <c r="J8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="10:60">
       <c r="J9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AU9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="10:60">
       <c r="J10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="10:60">
       <c r="J11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="10:60">
       <c r="J12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="10:60">
       <c r="J13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="10:60">
       <c r="J14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="10:60">
       <c r="J15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="10:60">
       <c r="J16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="10:47">
       <c r="J17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="10:47">
       <c r="J18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="10:47">
       <c r="J19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="10:47">
       <c r="J20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="10:47">
       <c r="J21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AU21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="10:47">
       <c r="J22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AU22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="10:47">
       <c r="J23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AU23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="10:47">
       <c r="J24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AU24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="10:47">
       <c r="J25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AU25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="10:47">
       <c r="J26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AU26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="10:47">
       <c r="J27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AU27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="10:47">
       <c r="J28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AU28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="10:47">
       <c r="J29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AU29" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="10:47">
       <c r="J30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AU30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="10:47">
       <c r="AU31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="10:47">
       <c r="AU32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="876">
   <si>
     <t>alias</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3201,7 +3204,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3245,7 +3248,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3275,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3994,6 +3997,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4018,27 +4026,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4061,122 +4069,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4203,828 +4211,828 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -5068,1597 +5076,1597 @@
   <sheetData>
     <row r="1" spans="10:60">
       <c r="J1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AC1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AU1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BH1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="10:60">
       <c r="J2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AC2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AU2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BH2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="10:60">
       <c r="J3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AU3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="10:60">
       <c r="J4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AU4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="10:60">
       <c r="J5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AU5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="10:60">
       <c r="J6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AU6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="10:60">
       <c r="J7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AU7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="10:60">
       <c r="J8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AU8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="10:60">
       <c r="J9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="10:60">
       <c r="J10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="10:60">
       <c r="J11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="10:60">
       <c r="J12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="10:60">
       <c r="J13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="10:60">
       <c r="J14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="10:60">
       <c r="J15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="10:60">
       <c r="J16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="10:47">
       <c r="J17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="10:47">
       <c r="J18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="10:47">
       <c r="J19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="10:47">
       <c r="J20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AU20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="10:47">
       <c r="J21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AU21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="10:47">
       <c r="J22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AU22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="10:47">
       <c r="J23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AU23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="10:47">
       <c r="J24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AU24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="10:47">
       <c r="J25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AU25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="10:47">
       <c r="J26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AU26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="10:47">
       <c r="J27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AU27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="10:47">
       <c r="J28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AU28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="10:47">
       <c r="J29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AU29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="10:47">
       <c r="J30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AU30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="10:47">
       <c r="AU31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="10:47">
       <c r="AU32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="877">
   <si>
     <t>alias</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3204,7 +3207,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3248,7 +3251,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +3278,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4002,6 +4005,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4026,27 +4034,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4069,122 +4077,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4211,828 +4219,828 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -5076,1597 +5084,1597 @@
   <sheetData>
     <row r="1" spans="10:60">
       <c r="J1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AC1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BH1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="10:60">
       <c r="J2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AU2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BH2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="10:60">
       <c r="J3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AU3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="10:60">
       <c r="J4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AU4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="10:60">
       <c r="J5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AU5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="10:60">
       <c r="J6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AU6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="10:60">
       <c r="J7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AU7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="10:60">
       <c r="J8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="10:60">
       <c r="J9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="10:60">
       <c r="J10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AU10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="10:60">
       <c r="J11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AU11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="10:60">
       <c r="J12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="10:60">
       <c r="J13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AU13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="10:60">
       <c r="J14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AU14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="10:60">
       <c r="J15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="10:60">
       <c r="J16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AU16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="10:47">
       <c r="J17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AU17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="10:47">
       <c r="J18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="10:47">
       <c r="J19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AU19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="10:47">
       <c r="J20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AU20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="10:47">
       <c r="J21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AU21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="10:47">
       <c r="J22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AU22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="10:47">
       <c r="J23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AU23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="10:47">
       <c r="J24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AU24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="10:47">
       <c r="J25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AU25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="10:47">
       <c r="J26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AU26" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="10:47">
       <c r="J27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AU27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="10:47">
       <c r="J28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AU28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="10:47">
       <c r="J29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AU29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="10:47">
       <c r="J30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AU30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="10:47">
       <c r="AU31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="10:47">
       <c r="AU32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="47:47">
       <c r="AU33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="47:47">
       <c r="AU34" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="47:47">
       <c r="AU35" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="47:47">
       <c r="AU36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="47:47">
       <c r="AU37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="47:47">
       <c r="AU38" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="47:47">
       <c r="AU39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="47:47">
       <c r="AU40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="47:47">
       <c r="AU41" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="47:47">
       <c r="AU42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="47:47">
       <c r="AU43" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="47:47">
       <c r="AU44" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="47:47">
       <c r="AU45" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="47:47">
       <c r="AU46" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="AU47" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="47:47">
       <c r="AU48" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="47:47">
       <c r="AU49" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="47:47">
       <c r="AU50" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="47:47">
       <c r="AU51" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="47:47">
       <c r="AU52" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="47:47">
       <c r="AU53" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="47:47">
       <c r="AU54" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="47:47">
       <c r="AU55" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="47:47">
       <c r="AU56" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="47:47">
       <c r="AU57" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="47:47">
       <c r="AU58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="47:47">
       <c r="AU59" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="47:47">
       <c r="AU60" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="47:47">
       <c r="AU61" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="47:47">
       <c r="AU62" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="47:47">
       <c r="AU63" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="47:47">
       <c r="AU64" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="47:47">
       <c r="AU65" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="47:47">
       <c r="AU66" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="47:47">
       <c r="AU67" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="47:47">
       <c r="AU68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="47:47">
       <c r="AU69" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="47:47">
       <c r="AU70" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="47:47">
       <c r="AU71" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="47:47">
       <c r="AU72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="47:47">
       <c r="AU73" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="47:47">
       <c r="AU74" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="47:47">
       <c r="AU75" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="47:47">
       <c r="AU76" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="47:47">
       <c r="AU77" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="47:47">
       <c r="AU78" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="47:47">
       <c r="AU79" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="47:47">
       <c r="AU80" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="47:47">
       <c r="AU81" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="47:47">
       <c r="AU82" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="47:47">
       <c r="AU83" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="47:47">
       <c r="AU84" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="47:47">
       <c r="AU85" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="47:47">
       <c r="AU86" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="47:47">
       <c r="AU87" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="47:47">
       <c r="AU88" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="47:47">
       <c r="AU89" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="47:47">
       <c r="AU90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="47:47">
       <c r="AU91" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="47:47">
       <c r="AU92" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="47:47">
       <c r="AU93" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="94" spans="47:47">
       <c r="AU94" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="47:47">
       <c r="AU95" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="47:47">
       <c r="AU96" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="47:47">
       <c r="AU97" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="47:47">
       <c r="AU98" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="47:47">
       <c r="AU99" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="47:47">
       <c r="AU100" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="47:47">
       <c r="AU101" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="47:47">
       <c r="AU102" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="47:47">
       <c r="AU103" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="47:47">
       <c r="AU104" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="47:47">
       <c r="AU105" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="47:47">
       <c r="AU106" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="47:47">
       <c r="AU107" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="47:47">
       <c r="AU108" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="47:47">
       <c r="AU109" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110" spans="47:47">
       <c r="AU110" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="47:47">
       <c r="AU111" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="47:47">
       <c r="AU112" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="47:47">
       <c r="AU113" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="47:47">
       <c r="AU114" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="47:47">
       <c r="AU115" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="47:47">
       <c r="AU116" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="47:47">
       <c r="AU117" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="47:47">
       <c r="AU118" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="47:47">
       <c r="AU119" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120" spans="47:47">
       <c r="AU120" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="121" spans="47:47">
       <c r="AU121" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="47:47">
       <c r="AU122" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="123" spans="47:47">
       <c r="AU123" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="47:47">
       <c r="AU124" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="47:47">
       <c r="AU125" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="47:47">
       <c r="AU126" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="47:47">
       <c r="AU127" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128" spans="47:47">
       <c r="AU128" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="47:47">
       <c r="AU129" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" spans="47:47">
       <c r="AU130" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131" spans="47:47">
       <c r="AU131" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="47:47">
       <c r="AU132" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="47:47">
       <c r="AU133" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="47:47">
       <c r="AU134" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="47:47">
       <c r="AU135" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="47:47">
       <c r="AU136" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="137" spans="47:47">
       <c r="AU137" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="138" spans="47:47">
       <c r="AU138" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="47:47">
       <c r="AU139" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="140" spans="47:47">
       <c r="AU140" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="141" spans="47:47">
       <c r="AU141" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="47:47">
       <c r="AU142" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" spans="47:47">
       <c r="AU143" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="144" spans="47:47">
       <c r="AU144" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="145" spans="47:47">
       <c r="AU145" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="146" spans="47:47">
       <c r="AU146" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" spans="47:47">
       <c r="AU147" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" spans="47:47">
       <c r="AU148" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="47:47">
       <c r="AU149" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="47:47">
       <c r="AU150" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="47:47">
       <c r="AU151" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="152" spans="47:47">
       <c r="AU152" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="47:47">
       <c r="AU153" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="47:47">
       <c r="AU154" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="155" spans="47:47">
       <c r="AU155" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="156" spans="47:47">
       <c r="AU156" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="157" spans="47:47">
       <c r="AU157" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="158" spans="47:47">
       <c r="AU158" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="159" spans="47:47">
       <c r="AU159" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160" spans="47:47">
       <c r="AU160" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="161" spans="47:47">
       <c r="AU161" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="47:47">
       <c r="AU162" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="47:47">
       <c r="AU163" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164" spans="47:47">
       <c r="AU164" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="47:47">
       <c r="AU165" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="47:47">
       <c r="AU166" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="47:47">
       <c r="AU167" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="168" spans="47:47">
       <c r="AU168" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="47:47">
       <c r="AU169" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="47:47">
       <c r="AU170" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="47:47">
       <c r="AU171" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="172" spans="47:47">
       <c r="AU172" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="47:47">
       <c r="AU173" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="174" spans="47:47">
       <c r="AU174" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="47:47">
       <c r="AU175" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="176" spans="47:47">
       <c r="AU176" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="177" spans="47:47">
       <c r="AU177" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="178" spans="47:47">
       <c r="AU178" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="47:47">
       <c r="AU179" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="180" spans="47:47">
       <c r="AU180" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="47:47">
       <c r="AU181" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="182" spans="47:47">
       <c r="AU182" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="183" spans="47:47">
       <c r="AU183" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="184" spans="47:47">
       <c r="AU184" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="185" spans="47:47">
       <c r="AU185" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="186" spans="47:47">
       <c r="AU186" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="187" spans="47:47">
       <c r="AU187" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" spans="47:47">
       <c r="AU188" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="189" spans="47:47">
       <c r="AU189" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="190" spans="47:47">
       <c r="AU190" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="191" spans="47:47">
       <c r="AU191" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" spans="47:47">
       <c r="AU192" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193" spans="47:47">
       <c r="AU193" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="194" spans="47:47">
       <c r="AU194" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="195" spans="47:47">
       <c r="AU195" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="196" spans="47:47">
       <c r="AU196" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" spans="47:47">
       <c r="AU197" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" spans="47:47">
       <c r="AU198" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="199" spans="47:47">
       <c r="AU199" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200" spans="47:47">
       <c r="AU200" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="201" spans="47:47">
       <c r="AU201" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="47:47">
       <c r="AU202" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="203" spans="47:47">
       <c r="AU203" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="47:47">
       <c r="AU204" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="205" spans="47:47">
       <c r="AU205" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="206" spans="47:47">
       <c r="AU206" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="207" spans="47:47">
       <c r="AU207" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="208" spans="47:47">
       <c r="AU208" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="47:47">
       <c r="AU209" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="210" spans="47:47">
       <c r="AU210" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="211" spans="47:47">
       <c r="AU211" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="212" spans="47:47">
       <c r="AU212" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" spans="47:47">
       <c r="AU213" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="214" spans="47:47">
       <c r="AU214" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="215" spans="47:47">
       <c r="AU215" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="216" spans="47:47">
       <c r="AU216" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="217" spans="47:47">
       <c r="AU217" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="218" spans="47:47">
       <c r="AU218" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="219" spans="47:47">
       <c r="AU219" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="220" spans="47:47">
       <c r="AU220" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="221" spans="47:47">
       <c r="AU221" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="222" spans="47:47">
       <c r="AU222" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="47:47">
       <c r="AU223" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="224" spans="47:47">
       <c r="AU224" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="225" spans="47:47">
       <c r="AU225" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="226" spans="47:47">
       <c r="AU226" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="227" spans="47:47">
       <c r="AU227" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="228" spans="47:47">
       <c r="AU228" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="229" spans="47:47">
       <c r="AU229" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" spans="47:47">
       <c r="AU230" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" spans="47:47">
       <c r="AU231" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="47:47">
       <c r="AU232" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="233" spans="47:47">
       <c r="AU233" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="234" spans="47:47">
       <c r="AU234" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="235" spans="47:47">
       <c r="AU235" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="236" spans="47:47">
       <c r="AU236" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="237" spans="47:47">
       <c r="AU237" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="238" spans="47:47">
       <c r="AU238" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="239" spans="47:47">
       <c r="AU239" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="240" spans="47:47">
       <c r="AU240" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="241" spans="47:47">
       <c r="AU241" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="242" spans="47:47">
       <c r="AU242" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="243" spans="47:47">
       <c r="AU243" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="244" spans="47:47">
       <c r="AU244" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="245" spans="47:47">
       <c r="AU245" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="246" spans="47:47">
       <c r="AU246" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="247" spans="47:47">
       <c r="AU247" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="248" spans="47:47">
       <c r="AU248" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="249" spans="47:47">
       <c r="AU249" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="250" spans="47:47">
       <c r="AU250" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="251" spans="47:47">
       <c r="AU251" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="252" spans="47:47">
       <c r="AU252" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="253" spans="47:47">
       <c r="AU253" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="254" spans="47:47">
       <c r="AU254" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="255" spans="47:47">
       <c r="AU255" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="256" spans="47:47">
       <c r="AU256" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="257" spans="47:47">
       <c r="AU257" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258" spans="47:47">
       <c r="AU258" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="259" spans="47:47">
       <c r="AU259" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="260" spans="47:47">
       <c r="AU260" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="261" spans="47:47">
       <c r="AU261" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="262" spans="47:47">
       <c r="AU262" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="263" spans="47:47">
       <c r="AU263" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="264" spans="47:47">
       <c r="AU264" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="265" spans="47:47">
       <c r="AU265" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="266" spans="47:47">
       <c r="AU266" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="267" spans="47:47">
       <c r="AU267" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="268" spans="47:47">
       <c r="AU268" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="269" spans="47:47">
       <c r="AU269" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="270" spans="47:47">
       <c r="AU270" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="271" spans="47:47">
       <c r="AU271" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="272" spans="47:47">
       <c r="AU272" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="273" spans="47:47">
       <c r="AU273" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="274" spans="47:47">
       <c r="AU274" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="275" spans="47:47">
       <c r="AU275" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="276" spans="47:47">
       <c r="AU276" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="277" spans="47:47">
       <c r="AU277" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="278" spans="47:47">
       <c r="AU278" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="279" spans="47:47">
       <c r="AU279" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="280" spans="47:47">
       <c r="AU280" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="281" spans="47:47">
       <c r="AU281" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="282" spans="47:47">
       <c r="AU282" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="283" spans="47:47">
       <c r="AU283" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="284" spans="47:47">
       <c r="AU284" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="285" spans="47:47">
       <c r="AU285" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="286" spans="47:47">
       <c r="AU286" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="287" spans="47:47">
       <c r="AU287" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="288" spans="47:47">
       <c r="AU288" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="882">
   <si>
     <t>alias</t>
   </si>
@@ -850,31 +850,31 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>Latitude Start</t>
+    <t>latitude_start</t>
   </si>
   <si>
     <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>Longitude Start</t>
+    <t>longitude_start</t>
   </si>
   <si>
     <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>Latitude End</t>
+    <t>latitude_end</t>
   </si>
   <si>
     <t>(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
-    <t>Longitude End</t>
+    <t>longitude_end</t>
   </si>
   <si>
     <t>(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
-    <t>Protocol Label</t>
+    <t>protocol_label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
@@ -970,7 +970,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -991,13 +991,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -1024,7 +1024,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1036,19 +1036,19 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1060,7 +1060,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1072,13 +1072,13 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>finishing strategy</t>
+    <t>finishing_strategy</t>
   </si>
   <si>
     <t>(Optional) Was the genome project intended to produce a complete or draft genome, coverage, the fold coverage of the sequencing expressed as 2x, 3x, 18x etc, and how many contigs were produced for the genome. mandatory for migs of eukaryote, bacteria and archaea.</t>
@@ -1090,37 +1090,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1135,25 +1135,25 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
@@ -1162,85 +1162,85 @@
     <t>water</t>
   </si>
   <si>
-    <t>environmental package</t>
+    <t>environmental_package</t>
   </si>
   <si>
     <t>(Mandatory) Migs/mims/mimarks extension for reporting of measurements and observations obtained from one or more of the environments where the sample was obtained. all environmental packages listed here are further defined in separate subtables. by giving the name of the environmental package, a selection of fields can be made from the subtables and can be reported</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
   </si>
   <si>
-    <t>Sampling Campaign</t>
+    <t>sampling_campaign</t>
   </si>
   <si>
     <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
   </si>
   <si>
-    <t>Sampling Site</t>
+    <t>sampling_site</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the site/station where data/sample collection is performed. term list: osd site registry or sdn:c17, http://tinyurl.com/oxux985 example: poseidon-e1-m3a time series station.</t>
   </si>
   <si>
-    <t>Sampling Platform</t>
+    <t>sampling_platform</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>Marine Region</t>
+    <t>marine_region</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
   </si>
   <si>
-    <t>water temperature</t>
+    <t>water_temperature</t>
   </si>
   <si>
     <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1459,9 +1459,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1480,6 +1477,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1681,6 +1681,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1690,9 +1693,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1732,7 +1732,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1801,6 +1801,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1876,6 +1879,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1897,6 +1903,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1942,6 +1951,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1954,6 +1966,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1963,9 +1978,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1990,6 +2002,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2050,12 +2065,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2113,25 +2128,25 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>specific host</t>
+    <t>specific_host</t>
   </si>
   <si>
     <t>(Optional) If there is a host involved, please provide its taxid (or environmental if not actually isolated from the dead or alive host - i.e. pathogen could be isolated from a swipe of a bench etc) and report whether it is a laboratory or natural host). from this we can calculate any number of groupings of hosts (e.g. animal vs plant, all fish hosts, etc)</t>
   </si>
   <si>
-    <t>health or disease status of specific host</t>
+    <t>health_or_disease_status_of_specific_host</t>
   </si>
   <si>
     <t>(Optional) Health or disease status of specific host at time of collection. this field accepts pato (v 2013-10-28) terms, for a browser please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>atmospheric data</t>
+    <t>atmospheric_data</t>
   </si>
   <si>
     <t>(Optional) Measurement of atmospheric data; can include multiple data</t>
@@ -2143,10 +2158,10 @@
     <t>(Optional) Electrical conductivity of water (Units: mS/cm)</t>
   </si>
   <si>
-    <t>water current</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
+    <t>water_current</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: knot)</t>
   </si>
   <si>
     <t>fluorescence</t>
@@ -2155,31 +2170,31 @@
     <t>(Optional) Raw (volts) or converted (mg chla/m^3) fluorescence of the water (Units: mg Chla/m3)</t>
   </si>
   <si>
-    <t>light intensity</t>
+    <t>light_intensity</t>
   </si>
   <si>
     <t>(Optional) Measurement of light intensity (Units: lux)</t>
   </si>
   <si>
-    <t>mean friction velocity</t>
+    <t>mean_friction_velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>mean peak friction velocity</t>
+    <t>mean_peak_friction_velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>downward PAR</t>
+    <t>downward_par</t>
   </si>
   <si>
     <t>(Optional) Visible waveband radiance and irradiance measurements in the water column (Units: µE/m2/s)</t>
   </si>
   <si>
-    <t>photon flux</t>
+    <t>photon_flux</t>
   </si>
   <si>
     <t>(Optional) Measurement of photon flux (Units: µmol/m2/s)</t>
@@ -2188,7 +2203,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>high</t>
@@ -2197,7 +2212,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>tidal stage</t>
+    <t>tidal_stage</t>
   </si>
   <si>
     <t>(Optional) Stage of tide</t>
@@ -2209,25 +2224,25 @@
     <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>total depth of water column</t>
+    <t>total_depth_of_water_column</t>
   </si>
   <si>
     <t>(Optional) Measurement of total depth of water column (Units: m)</t>
   </si>
   <si>
-    <t>alkyl diethers</t>
+    <t>alkyl_diethers</t>
   </si>
   <si>
     <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
-    <t>aminopeptidase activity</t>
+    <t>aminopeptidase_activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
@@ -2239,19 +2254,19 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>bacterial carbon production</t>
+    <t>bacterial_carbon_production</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
   </si>
   <si>
-    <t>bacterial production</t>
+    <t>bacterial_production</t>
   </si>
   <si>
     <t>(Optional) Bacterial production in the water column measured by isotope uptake (Units: mg/m3/d)</t>
   </si>
   <si>
-    <t>bacterial respiration</t>
+    <t>bacterial_respiration</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial respiration in the water column (Units: mg/m3/d)</t>
@@ -2260,7 +2275,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2272,10 +2287,10 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>carbon/nitrogen ratio</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>carbonnitrogen_ratio</t>
   </si>
   <si>
     <t>(Optional) Ratio of amount or concentrations of carbon to nitrogen</t>
@@ -2293,61 +2308,61 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether lipids</t>
+    <t>diether_lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved carbon dioxide</t>
+    <t>dissolved_carbon_dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved hydrogen</t>
+    <t>dissolved_hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic carbon</t>
+    <t>dissolved_inorganic_carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic nitrogen</t>
+    <t>dissolved_inorganic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved inorganic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic phosphorus</t>
+    <t>dissolved_inorganic_phosphorus</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved inorganic phosphorus (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved organic carbon</t>
+    <t>dissolved_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved organic nitrogen</t>
+    <t>dissolved_organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved oxygen</t>
+    <t>dissolved_oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>glucosidase activity</t>
+    <t>glucosidase_activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
@@ -2356,10 +2371,10 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
-  </si>
-  <si>
-    <t>n-alkanes</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>nalkanes</t>
   </si>
   <si>
     <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
@@ -2377,43 +2392,43 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total nitrogen concentration</t>
+    <t>total_nitrogen_concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic carbon</t>
+    <t>organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic matter</t>
+    <t>organic_matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic nitrogen</t>
+    <t>organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate organic carbon</t>
+    <t>particulate_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate organic nitrogen</t>
+    <t>particulate_organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>petroleum hydrocarbon</t>
+    <t>petroleum_hydrocarbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
@@ -2431,7 +2446,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid fatty acid</t>
+    <t>phospholipid_fatty_acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2443,13 +2458,13 @@
     <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>primary production</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of primary production (Units: mg/m3/day)</t>
-  </si>
-  <si>
-    <t>redox potential</t>
+    <t>primary_production</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of primary production (Units: g/m2/day)</t>
+  </si>
+  <si>
+    <t>redox_potential</t>
   </si>
   <si>
     <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
@@ -2473,7 +2488,7 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>soluble reactive phosphorus</t>
+    <t>soluble_reactive_phosphorus</t>
   </si>
   <si>
     <t>(Optional) Concentration of soluble reactive phosphorus (Units: µmol/L)</t>
@@ -2482,46 +2497,46 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>suspended particulate matter</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>suspended_particulate_matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of suspended particulate matter (Units: mg/L)</t>
   </si>
   <si>
-    <t>total dissolved nitrogen</t>
+    <t>total_dissolved_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = nh4 + no3no2 + dissolved organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>total inorganic nitrogen</t>
+    <t>total_inorganic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Total inorganic nitrogen content (Units: µg/L)</t>
   </si>
   <si>
-    <t>total nitrogen content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>total particulate carbon</t>
-  </si>
-  <si>
-    <t>(Optional) Total particulate carbon content (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>total phosphorus</t>
+    <t>total_nitrogen_content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>total_particulate_carbon</t>
+  </si>
+  <si>
+    <t>(Optional) Total particulate carbon content (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>total_phosphorus</t>
   </si>
   <si>
     <t>(Optional) Total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. can also be measured without filtering, reported as phosphorus (Units: µmol/L)</t>
@@ -2533,13 +2548,13 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>miscellaneous parameter</t>
+    <t>miscellaneous_parameter</t>
   </si>
   <si>
     <t>(Optional) Any other measurement performed or parameter collected, that is not listed here</t>
@@ -2551,103 +2566,103 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2662,10 +2677,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>chemical administration</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4351,280 +4366,280 @@
         <v>400</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
@@ -4767,280 +4782,280 @@
         <v>401</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -5076,7 +5091,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:BH289"/>
+  <dimension ref="J1:BH294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5105,7 +5120,7 @@
         <v>402</v>
       </c>
       <c r="BH1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="10:60">
@@ -5128,7 +5143,7 @@
         <v>403</v>
       </c>
       <c r="BH2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="10:60">
@@ -6675,6 +6690,31 @@
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="290" spans="47:47">
+      <c r="AU290" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="291" spans="47:47">
+      <c r="AU291" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="292" spans="47:47">
+      <c r="AU292" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="293" spans="47:47">
+      <c r="AU293" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="294" spans="47:47">
+      <c r="AU294" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="877">
   <si>
     <t>alias</t>
   </si>
@@ -850,31 +850,31 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>latitude_start</t>
+    <t>Latitude Start</t>
   </si>
   <si>
     <t>(Mandatory) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>longitude_start</t>
+    <t>Longitude Start</t>
   </si>
   <si>
     <t>(Mandatory) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>latitude_end</t>
+    <t>Latitude End</t>
   </si>
   <si>
     <t>(Recommended) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
-    <t>longitude_end</t>
+    <t>Longitude End</t>
   </si>
   <si>
     <t>(Recommended) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
-    <t>protocol_label</t>
+    <t>Protocol Label</t>
   </si>
   <si>
     <t>(Mandatory) Identifies the protocol used to produce the sample, e.g. filtration and preservation. example: bact_nuc_w0.22-1.6.</t>
@@ -970,7 +970,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -991,13 +991,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -1024,7 +1024,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1036,19 +1036,19 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1060,7 +1060,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1072,13 +1072,13 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>finishing_strategy</t>
+    <t>finishing strategy</t>
   </si>
   <si>
     <t>(Optional) Was the genome project intended to produce a complete or draft genome, coverage, the fold coverage of the sequencing expressed as 2x, 3x, 18x etc, and how many contigs were produced for the genome. mandatory for migs of eukaryote, bacteria and archaea.</t>
@@ -1090,37 +1090,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1135,25 +1135,25 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
@@ -1162,85 +1162,85 @@
     <t>water</t>
   </si>
   <si>
-    <t>environmental_package</t>
+    <t>environmental package</t>
   </si>
   <si>
     <t>(Mandatory) Migs/mims/mimarks extension for reporting of measurements and observations obtained from one or more of the environments where the sample was obtained. all environmental packages listed here are further defined in separate subtables. by giving the name of the environmental package, a selection of fields can be made from the subtables and can be reported</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
   </si>
   <si>
-    <t>sampling_campaign</t>
+    <t>Sampling Campaign</t>
   </si>
   <si>
     <t>(Mandatory) Refers to a finite or indefinite activity aiming at collecting data/samples, e.g. a cruise, a time series, a mesocosm experiment. example: tara_20110401z.</t>
   </si>
   <si>
-    <t>sampling_site</t>
+    <t>Sampling Site</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the site/station where data/sample collection is performed. term list: osd site registry or sdn:c17, http://tinyurl.com/oxux985 example: poseidon-e1-m3a time series station.</t>
   </si>
   <si>
-    <t>sampling_platform</t>
+    <t>Sampling Platform</t>
   </si>
   <si>
     <t>(Mandatory) Refers to the unique stage from which the sampling device has been deployed. includes platform category from sdn:l06, http://seadatanet.maris2.nl/v_bodc_vocab_v2/search.asp?lib=l06, and platform name. example: research vessel tara.</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>marine_region</t>
+    <t>Marine Region</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by the marine region name chosen from the marine regions vocabulary at http://www.marineregions.org/. example: aegean sea.</t>
   </si>
   <si>
-    <t>water_temperature</t>
+    <t>water temperature</t>
   </si>
   <si>
     <t>(Mandatory) Temperature of water at the time of taking the sample. format: ##.####, sdn:p02:75:temp, sdn:p06:46:upaa for °c. example: 17.7122. (Units: ºC)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1459,6 +1459,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1477,9 +1480,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1681,9 +1681,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1693,6 +1690,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1732,7 +1732,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1801,9 +1801,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1879,9 +1876,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1903,9 +1897,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1951,9 +1942,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1966,9 +1954,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1978,6 +1963,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2002,9 +1990,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2065,12 +2050,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2128,25 +2113,25 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>specific_host</t>
+    <t>specific host</t>
   </si>
   <si>
     <t>(Optional) If there is a host involved, please provide its taxid (or environmental if not actually isolated from the dead or alive host - i.e. pathogen could be isolated from a swipe of a bench etc) and report whether it is a laboratory or natural host). from this we can calculate any number of groupings of hosts (e.g. animal vs plant, all fish hosts, etc)</t>
   </si>
   <si>
-    <t>health_or_disease_status_of_specific_host</t>
+    <t>health or disease status of specific host</t>
   </si>
   <si>
     <t>(Optional) Health or disease status of specific host at time of collection. this field accepts pato (v 2013-10-28) terms, for a browser please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>atmospheric_data</t>
+    <t>atmospheric data</t>
   </si>
   <si>
     <t>(Optional) Measurement of atmospheric data; can include multiple data</t>
@@ -2158,10 +2143,10 @@
     <t>(Optional) Electrical conductivity of water (Units: mS/cm)</t>
   </si>
   <si>
-    <t>water_current</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: knot)</t>
+    <t>water current</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
   </si>
   <si>
     <t>fluorescence</t>
@@ -2170,31 +2155,31 @@
     <t>(Optional) Raw (volts) or converted (mg chla/m^3) fluorescence of the water (Units: mg Chla/m3)</t>
   </si>
   <si>
-    <t>light_intensity</t>
+    <t>light intensity</t>
   </si>
   <si>
     <t>(Optional) Measurement of light intensity (Units: lux)</t>
   </si>
   <si>
-    <t>mean_friction_velocity</t>
+    <t>mean friction velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>mean_peak_friction_velocity</t>
+    <t>mean peak friction velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>downward_par</t>
+    <t>downward PAR</t>
   </si>
   <si>
     <t>(Optional) Visible waveband radiance and irradiance measurements in the water column (Units: µE/m2/s)</t>
   </si>
   <si>
-    <t>photon_flux</t>
+    <t>photon flux</t>
   </si>
   <si>
     <t>(Optional) Measurement of photon flux (Units: µmol/m2/s)</t>
@@ -2203,7 +2188,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>high</t>
@@ -2212,7 +2197,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>tidal_stage</t>
+    <t>tidal stage</t>
   </si>
   <si>
     <t>(Optional) Stage of tide</t>
@@ -2224,25 +2209,25 @@
     <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>total_depth_of_water_column</t>
+    <t>total depth of water column</t>
   </si>
   <si>
     <t>(Optional) Measurement of total depth of water column (Units: m)</t>
   </si>
   <si>
-    <t>alkyl_diethers</t>
+    <t>alkyl diethers</t>
   </si>
   <si>
     <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
-    <t>aminopeptidase_activity</t>
+    <t>aminopeptidase activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
@@ -2254,19 +2239,19 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>bacterial_carbon_production</t>
+    <t>bacterial carbon production</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
   </si>
   <si>
-    <t>bacterial_production</t>
+    <t>bacterial production</t>
   </si>
   <si>
     <t>(Optional) Bacterial production in the water column measured by isotope uptake (Units: mg/m3/d)</t>
   </si>
   <si>
-    <t>bacterial_respiration</t>
+    <t>bacterial respiration</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial respiration in the water column (Units: mg/m3/d)</t>
@@ -2275,7 +2260,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2287,10 +2272,10 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>carbonnitrogen_ratio</t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>carbon/nitrogen ratio</t>
   </si>
   <si>
     <t>(Optional) Ratio of amount or concentrations of carbon to nitrogen</t>
@@ -2308,61 +2293,61 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether_lipids</t>
+    <t>diether lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved_carbon_dioxide</t>
+    <t>dissolved carbon dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_hydrogen</t>
+    <t>dissolved hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_carbon</t>
+    <t>dissolved inorganic carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_nitrogen</t>
+    <t>dissolved inorganic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved inorganic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_phosphorus</t>
+    <t>dissolved inorganic phosphorus</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved inorganic phosphorus (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_carbon</t>
+    <t>dissolved organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_nitrogen</t>
+    <t>dissolved organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_oxygen</t>
+    <t>dissolved oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>glucosidase_activity</t>
+    <t>glucosidase activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
@@ -2371,10 +2356,10 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>nalkanes</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+  </si>
+  <si>
+    <t>n-alkanes</t>
   </si>
   <si>
     <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
@@ -2392,43 +2377,43 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_concentration</t>
+    <t>total nitrogen concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_carbon</t>
+    <t>organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_matter</t>
+    <t>organic matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic_nitrogen</t>
+    <t>organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate_organic_carbon</t>
+    <t>particulate organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate_organic_nitrogen</t>
+    <t>particulate organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>petroleum_hydrocarbon</t>
+    <t>petroleum hydrocarbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
@@ -2446,7 +2431,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid_fatty_acid</t>
+    <t>phospholipid fatty acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2458,13 +2443,13 @@
     <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>primary_production</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of primary production (Units: g/m2/day)</t>
-  </si>
-  <si>
-    <t>redox_potential</t>
+    <t>primary production</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of primary production (Units: mg/m3/day)</t>
+  </si>
+  <si>
+    <t>redox potential</t>
   </si>
   <si>
     <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
@@ -2488,7 +2473,7 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>soluble_reactive_phosphorus</t>
+    <t>soluble reactive phosphorus</t>
   </si>
   <si>
     <t>(Optional) Concentration of soluble reactive phosphorus (Units: µmol/L)</t>
@@ -2497,46 +2482,46 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>suspended_particulate_matter</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>suspended particulate matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of suspended particulate matter (Units: mg/L)</t>
   </si>
   <si>
-    <t>total_dissolved_nitrogen</t>
+    <t>total dissolved nitrogen</t>
   </si>
   <si>
     <t>(Optional) Total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = nh4 + no3no2 + dissolved organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>total_inorganic_nitrogen</t>
+    <t>total inorganic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Total inorganic nitrogen content (Units: µg/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
-  </si>
-  <si>
-    <t>total_particulate_carbon</t>
-  </si>
-  <si>
-    <t>(Optional) Total particulate carbon content (Units: µg/L)</t>
-  </si>
-  <si>
-    <t>total_phosphorus</t>
+    <t>total nitrogen content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>total particulate carbon</t>
+  </si>
+  <si>
+    <t>(Optional) Total particulate carbon content (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>total phosphorus</t>
   </si>
   <si>
     <t>(Optional) Total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. can also be measured without filtering, reported as phosphorus (Units: µmol/L)</t>
@@ -2548,13 +2533,13 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>miscellaneous_parameter</t>
+    <t>miscellaneous parameter</t>
   </si>
   <si>
     <t>(Optional) Any other measurement performed or parameter collected, that is not listed here</t>
@@ -2566,103 +2551,103 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2677,10 +2662,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>chemical_administration</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4366,280 +4351,280 @@
         <v>400</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:138" ht="150" customHeight="1">
@@ -4782,280 +4767,280 @@
         <v>401</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +5076,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:BH294"/>
+  <dimension ref="J1:BH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5120,7 +5105,7 @@
         <v>402</v>
       </c>
       <c r="BH1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="10:60">
@@ -5143,7 +5128,7 @@
         <v>403</v>
       </c>
       <c r="BH2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="10:60">
@@ -6690,31 +6675,6 @@
     <row r="289" spans="47:47">
       <c r="AU289" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="290" spans="47:47">
-      <c r="AU290" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="291" spans="47:47">
-      <c r="AU291" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="292" spans="47:47">
-      <c r="AU292" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="293" spans="47:47">
-      <c r="AU293" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="294" spans="47:47">
-      <c r="AU294" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -17,28 +17,28 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalpackage">'cv_sample'!$AG$1:$AG$1</definedName>
+    <definedName name="environmentalpackage">'cv_sample'!$AI$1:$AI$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AU$1:$AU$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$K$1:$K$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$R$1:$R$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$M$1:$M$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$M$1:$M$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$AC$1:$AC$3</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$O$1:$O$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AE$1:$AE$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="tidalstage">'cv_sample'!$BH$1:$BH$2</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$J$1:$J$30</definedName>
+    <definedName name="tidalstage">'cv_sample'!$BJ$1:$BJ$2</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$L$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="881">
   <si>
     <t>alias</t>
   </si>
@@ -842,6 +842,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4202,7 +4214,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EH2"/>
+  <dimension ref="A1:EJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4211,7 +4223,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138">
+    <row r="1" spans="1:140">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4240,19 +4252,19 @@
         <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>332</v>
@@ -4264,10 +4276,10 @@
         <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>344</v>
@@ -4297,10 +4309,10 @@
         <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>369</v>
@@ -4309,10 +4321,10 @@
         <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>378</v>
@@ -4351,10 +4363,10 @@
         <v>400</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>691</v>
+        <v>402</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>693</v>
+        <v>404</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>695</v>
@@ -4390,10 +4402,10 @@
         <v>715</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>723</v>
@@ -4626,8 +4638,14 @@
       <c r="EH1" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="2" spans="1:138" ht="150" customHeight="1">
+      <c r="EI1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:140" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4656,19 +4674,19 @@
         <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>333</v>
@@ -4680,10 +4698,10 @@
         <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>345</v>
@@ -4713,10 +4731,10 @@
         <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>370</v>
@@ -4725,10 +4743,10 @@
         <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>379</v>
@@ -4767,10 +4785,10 @@
         <v>401</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>692</v>
+        <v>403</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>694</v>
+        <v>405</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>696</v>
@@ -4806,10 +4824,10 @@
         <v>716</v>
       </c>
       <c r="BH2" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="BI2" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>724</v>
@@ -5042,31 +5060,37 @@
       <c r="EH2" s="2" t="s">
         <v>876</v>
       </c>
+      <c r="EI2" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="EJ2" s="2" t="s">
+        <v>880</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
       <formula1>environmentalpackage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ3:BJ101">
       <formula1>tidalstage</formula1>
     </dataValidation>
   </dataValidations>
@@ -5076,1605 +5100,1605 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:BH289"/>
+  <dimension ref="L1:BJ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="10:60">
-      <c r="J1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K1" t="s">
+    <row r="1" spans="12:62">
+      <c r="L1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="12:62">
+      <c r="L2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" t="s">
+        <v>326</v>
+      </c>
+      <c r="T2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="12:62">
+      <c r="L3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="12:62">
+      <c r="L4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" t="s">
+        <v>319</v>
+      </c>
+      <c r="O4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="12:62">
+      <c r="L5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M5" t="s">
+        <v>320</v>
+      </c>
+      <c r="O5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="12:62">
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="12:62">
+      <c r="L7" t="s">
+        <v>290</v>
+      </c>
+      <c r="O7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="12:62">
+      <c r="L8" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="12:62">
+      <c r="L9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="12:62">
+      <c r="L10" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="12:62">
+      <c r="L11" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="12:62">
+      <c r="L12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="12:62">
+      <c r="L13" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="12:62">
+      <c r="L14" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="12:62">
+      <c r="L15" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="12:62">
+      <c r="L16" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="12:49">
+      <c r="L17" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="12:49">
+      <c r="L18" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="12:49">
+      <c r="L19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="12:49">
+      <c r="L20" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="12:49">
+      <c r="L21" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="12:49">
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="12:49">
+      <c r="L23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="12:49">
+      <c r="L24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="12:49">
+      <c r="L25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="12:49">
+      <c r="L26" t="s">
+        <v>309</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="12:49">
+      <c r="L27" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="12:49">
+      <c r="L28" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="12:49">
+      <c r="L29" t="s">
         <v>312</v>
       </c>
-      <c r="M1" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="2" spans="10:60">
-      <c r="J2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AW29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="12:49">
+      <c r="L30" t="s">
         <v>313</v>
       </c>
-      <c r="M2" t="s">
-        <v>322</v>
-      </c>
-      <c r="R2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>403</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="10:60">
-      <c r="J3" t="s">
-        <v>282</v>
-      </c>
-      <c r="K3" t="s">
-        <v>314</v>
-      </c>
-      <c r="M3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>364</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="10:60">
-      <c r="J4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K4" t="s">
-        <v>315</v>
-      </c>
-      <c r="M4" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="10:60">
-      <c r="J5" t="s">
-        <v>284</v>
-      </c>
-      <c r="K5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="10:60">
-      <c r="J6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="10:60">
-      <c r="J7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M7" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="10:60">
-      <c r="J8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="9" spans="10:60">
-      <c r="J9" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="10:60">
-      <c r="J10" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="10:60">
-      <c r="J11" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="10:60">
-      <c r="J12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="13" spans="10:60">
-      <c r="J13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="10:60">
-      <c r="J14" t="s">
-        <v>293</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="10:60">
-      <c r="J15" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="10:60">
-      <c r="J16" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="10:47">
-      <c r="J17" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="10:47">
-      <c r="J18" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="10:47">
-      <c r="J19" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="10:47">
-      <c r="J20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="10:47">
-      <c r="J21" t="s">
-        <v>300</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="10:47">
-      <c r="J22" t="s">
-        <v>301</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="10:47">
-      <c r="J23" t="s">
-        <v>302</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="24" spans="10:47">
-      <c r="J24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="10:47">
-      <c r="J25" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="26" spans="10:47">
-      <c r="J26" t="s">
-        <v>305</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="10:47">
-      <c r="J27" t="s">
-        <v>306</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="28" spans="10:47">
-      <c r="J28" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="29" spans="10:47">
-      <c r="J29" t="s">
-        <v>308</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30" spans="10:47">
-      <c r="J30" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="10:47">
-      <c r="AU31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="10:47">
-      <c r="AU32" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="33" spans="47:47">
-      <c r="AU33" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="34" spans="47:47">
-      <c r="AU34" t="s">
+      <c r="AW30" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="47:47">
-      <c r="AU35" t="s">
+    <row r="31" spans="12:49">
+      <c r="AW31" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="36" spans="47:47">
-      <c r="AU36" t="s">
+    <row r="32" spans="12:49">
+      <c r="AW32" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="47:47">
-      <c r="AU37" t="s">
+    <row r="33" spans="49:49">
+      <c r="AW33" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="47:47">
-      <c r="AU38" t="s">
+    <row r="34" spans="49:49">
+      <c r="AW34" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="47:47">
-      <c r="AU39" t="s">
+    <row r="35" spans="49:49">
+      <c r="AW35" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="47:47">
-      <c r="AU40" t="s">
+    <row r="36" spans="49:49">
+      <c r="AW36" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="41" spans="47:47">
-      <c r="AU41" t="s">
+    <row r="37" spans="49:49">
+      <c r="AW37" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="47:47">
-      <c r="AU42" t="s">
+    <row r="38" spans="49:49">
+      <c r="AW38" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="47:47">
-      <c r="AU43" t="s">
+    <row r="39" spans="49:49">
+      <c r="AW39" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="44" spans="47:47">
-      <c r="AU44" t="s">
+    <row r="40" spans="49:49">
+      <c r="AW40" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="47:47">
-      <c r="AU45" t="s">
+    <row r="41" spans="49:49">
+      <c r="AW41" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="46" spans="47:47">
-      <c r="AU46" t="s">
+    <row r="42" spans="49:49">
+      <c r="AW42" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="47" spans="47:47">
-      <c r="AU47" t="s">
+    <row r="43" spans="49:49">
+      <c r="AW43" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="48" spans="47:47">
-      <c r="AU48" t="s">
+    <row r="44" spans="49:49">
+      <c r="AW44" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="49" spans="47:47">
-      <c r="AU49" t="s">
+    <row r="45" spans="49:49">
+      <c r="AW45" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="47:47">
-      <c r="AU50" t="s">
+    <row r="46" spans="49:49">
+      <c r="AW46" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="47:47">
-      <c r="AU51" t="s">
+    <row r="47" spans="49:49">
+      <c r="AW47" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="47:47">
-      <c r="AU52" t="s">
+    <row r="48" spans="49:49">
+      <c r="AW48" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="53" spans="47:47">
-      <c r="AU53" t="s">
+    <row r="49" spans="49:49">
+      <c r="AW49" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="54" spans="47:47">
-      <c r="AU54" t="s">
+    <row r="50" spans="49:49">
+      <c r="AW50" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="55" spans="47:47">
-      <c r="AU55" t="s">
+    <row r="51" spans="49:49">
+      <c r="AW51" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="47:47">
-      <c r="AU56" t="s">
+    <row r="52" spans="49:49">
+      <c r="AW52" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="47:47">
-      <c r="AU57" t="s">
+    <row r="53" spans="49:49">
+      <c r="AW53" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="47:47">
-      <c r="AU58" t="s">
+    <row r="54" spans="49:49">
+      <c r="AW54" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="47:47">
-      <c r="AU59" t="s">
+    <row r="55" spans="49:49">
+      <c r="AW55" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="47:47">
-      <c r="AU60" t="s">
+    <row r="56" spans="49:49">
+      <c r="AW56" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="47:47">
-      <c r="AU61" t="s">
+    <row r="57" spans="49:49">
+      <c r="AW57" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="47:47">
-      <c r="AU62" t="s">
+    <row r="58" spans="49:49">
+      <c r="AW58" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="63" spans="47:47">
-      <c r="AU63" t="s">
+    <row r="59" spans="49:49">
+      <c r="AW59" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="47:47">
-      <c r="AU64" t="s">
+    <row r="60" spans="49:49">
+      <c r="AW60" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="65" spans="47:47">
-      <c r="AU65" t="s">
+    <row r="61" spans="49:49">
+      <c r="AW61" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="47:47">
-      <c r="AU66" t="s">
+    <row r="62" spans="49:49">
+      <c r="AW62" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="47:47">
-      <c r="AU67" t="s">
+    <row r="63" spans="49:49">
+      <c r="AW63" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="47:47">
-      <c r="AU68" t="s">
+    <row r="64" spans="49:49">
+      <c r="AW64" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="47:47">
-      <c r="AU69" t="s">
+    <row r="65" spans="49:49">
+      <c r="AW65" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="47:47">
-      <c r="AU70" t="s">
+    <row r="66" spans="49:49">
+      <c r="AW66" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="47:47">
-      <c r="AU71" t="s">
+    <row r="67" spans="49:49">
+      <c r="AW67" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="72" spans="47:47">
-      <c r="AU72" t="s">
+    <row r="68" spans="49:49">
+      <c r="AW68" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="47:47">
-      <c r="AU73" t="s">
+    <row r="69" spans="49:49">
+      <c r="AW69" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="74" spans="47:47">
-      <c r="AU74" t="s">
+    <row r="70" spans="49:49">
+      <c r="AW70" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="75" spans="47:47">
-      <c r="AU75" t="s">
+    <row r="71" spans="49:49">
+      <c r="AW71" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="76" spans="47:47">
-      <c r="AU76" t="s">
+    <row r="72" spans="49:49">
+      <c r="AW72" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="47:47">
-      <c r="AU77" t="s">
+    <row r="73" spans="49:49">
+      <c r="AW73" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="78" spans="47:47">
-      <c r="AU78" t="s">
+    <row r="74" spans="49:49">
+      <c r="AW74" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="79" spans="47:47">
-      <c r="AU79" t="s">
+    <row r="75" spans="49:49">
+      <c r="AW75" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="80" spans="47:47">
-      <c r="AU80" t="s">
+    <row r="76" spans="49:49">
+      <c r="AW76" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="81" spans="47:47">
-      <c r="AU81" t="s">
+    <row r="77" spans="49:49">
+      <c r="AW77" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="82" spans="47:47">
-      <c r="AU82" t="s">
+    <row r="78" spans="49:49">
+      <c r="AW78" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="47:47">
-      <c r="AU83" t="s">
+    <row r="79" spans="49:49">
+      <c r="AW79" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="47:47">
-      <c r="AU84" t="s">
+    <row r="80" spans="49:49">
+      <c r="AW80" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="85" spans="47:47">
-      <c r="AU85" t="s">
+    <row r="81" spans="49:49">
+      <c r="AW81" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="47:47">
-      <c r="AU86" t="s">
+    <row r="82" spans="49:49">
+      <c r="AW82" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="87" spans="47:47">
-      <c r="AU87" t="s">
+    <row r="83" spans="49:49">
+      <c r="AW83" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="88" spans="47:47">
-      <c r="AU88" t="s">
+    <row r="84" spans="49:49">
+      <c r="AW84" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="89" spans="47:47">
-      <c r="AU89" t="s">
+    <row r="85" spans="49:49">
+      <c r="AW85" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="90" spans="47:47">
-      <c r="AU90" t="s">
+    <row r="86" spans="49:49">
+      <c r="AW86" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="47:47">
-      <c r="AU91" t="s">
+    <row r="87" spans="49:49">
+      <c r="AW87" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="92" spans="47:47">
-      <c r="AU92" t="s">
+    <row r="88" spans="49:49">
+      <c r="AW88" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="93" spans="47:47">
-      <c r="AU93" t="s">
+    <row r="89" spans="49:49">
+      <c r="AW89" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="94" spans="47:47">
-      <c r="AU94" t="s">
+    <row r="90" spans="49:49">
+      <c r="AW90" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="95" spans="47:47">
-      <c r="AU95" t="s">
+    <row r="91" spans="49:49">
+      <c r="AW91" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="96" spans="47:47">
-      <c r="AU96" t="s">
+    <row r="92" spans="49:49">
+      <c r="AW92" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="97" spans="47:47">
-      <c r="AU97" t="s">
+    <row r="93" spans="49:49">
+      <c r="AW93" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="98" spans="47:47">
-      <c r="AU98" t="s">
+    <row r="94" spans="49:49">
+      <c r="AW94" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="99" spans="47:47">
-      <c r="AU99" t="s">
+    <row r="95" spans="49:49">
+      <c r="AW95" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="47:47">
-      <c r="AU100" t="s">
+    <row r="96" spans="49:49">
+      <c r="AW96" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="47:47">
-      <c r="AU101" t="s">
+    <row r="97" spans="49:49">
+      <c r="AW97" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="102" spans="47:47">
-      <c r="AU102" t="s">
+    <row r="98" spans="49:49">
+      <c r="AW98" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="103" spans="47:47">
-      <c r="AU103" t="s">
+    <row r="99" spans="49:49">
+      <c r="AW99" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="104" spans="47:47">
-      <c r="AU104" t="s">
+    <row r="100" spans="49:49">
+      <c r="AW100" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="105" spans="47:47">
-      <c r="AU105" t="s">
+    <row r="101" spans="49:49">
+      <c r="AW101" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="47:47">
-      <c r="AU106" t="s">
+    <row r="102" spans="49:49">
+      <c r="AW102" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="107" spans="47:47">
-      <c r="AU107" t="s">
+    <row r="103" spans="49:49">
+      <c r="AW103" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="47:47">
-      <c r="AU108" t="s">
+    <row r="104" spans="49:49">
+      <c r="AW104" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="109" spans="47:47">
-      <c r="AU109" t="s">
+    <row r="105" spans="49:49">
+      <c r="AW105" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="110" spans="47:47">
-      <c r="AU110" t="s">
+    <row r="106" spans="49:49">
+      <c r="AW106" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="111" spans="47:47">
-      <c r="AU111" t="s">
+    <row r="107" spans="49:49">
+      <c r="AW107" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="112" spans="47:47">
-      <c r="AU112" t="s">
+    <row r="108" spans="49:49">
+      <c r="AW108" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="113" spans="47:47">
-      <c r="AU113" t="s">
+    <row r="109" spans="49:49">
+      <c r="AW109" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="114" spans="47:47">
-      <c r="AU114" t="s">
+    <row r="110" spans="49:49">
+      <c r="AW110" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="115" spans="47:47">
-      <c r="AU115" t="s">
+    <row r="111" spans="49:49">
+      <c r="AW111" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="116" spans="47:47">
-      <c r="AU116" t="s">
+    <row r="112" spans="49:49">
+      <c r="AW112" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="117" spans="47:47">
-      <c r="AU117" t="s">
+    <row r="113" spans="49:49">
+      <c r="AW113" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="118" spans="47:47">
-      <c r="AU118" t="s">
+    <row r="114" spans="49:49">
+      <c r="AW114" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="119" spans="47:47">
-      <c r="AU119" t="s">
+    <row r="115" spans="49:49">
+      <c r="AW115" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="120" spans="47:47">
-      <c r="AU120" t="s">
+    <row r="116" spans="49:49">
+      <c r="AW116" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="121" spans="47:47">
-      <c r="AU121" t="s">
+    <row r="117" spans="49:49">
+      <c r="AW117" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="47:47">
-      <c r="AU122" t="s">
+    <row r="118" spans="49:49">
+      <c r="AW118" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="47:47">
-      <c r="AU123" t="s">
+    <row r="119" spans="49:49">
+      <c r="AW119" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="124" spans="47:47">
-      <c r="AU124" t="s">
+    <row r="120" spans="49:49">
+      <c r="AW120" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="125" spans="47:47">
-      <c r="AU125" t="s">
+    <row r="121" spans="49:49">
+      <c r="AW121" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="47:47">
-      <c r="AU126" t="s">
+    <row r="122" spans="49:49">
+      <c r="AW122" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="127" spans="47:47">
-      <c r="AU127" t="s">
+    <row r="123" spans="49:49">
+      <c r="AW123" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="128" spans="47:47">
-      <c r="AU128" t="s">
+    <row r="124" spans="49:49">
+      <c r="AW124" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="129" spans="47:47">
-      <c r="AU129" t="s">
+    <row r="125" spans="49:49">
+      <c r="AW125" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="130" spans="47:47">
-      <c r="AU130" t="s">
+    <row r="126" spans="49:49">
+      <c r="AW126" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="131" spans="47:47">
-      <c r="AU131" t="s">
+    <row r="127" spans="49:49">
+      <c r="AW127" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="132" spans="47:47">
-      <c r="AU132" t="s">
+    <row r="128" spans="49:49">
+      <c r="AW128" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="133" spans="47:47">
-      <c r="AU133" t="s">
+    <row r="129" spans="49:49">
+      <c r="AW129" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="134" spans="47:47">
-      <c r="AU134" t="s">
+    <row r="130" spans="49:49">
+      <c r="AW130" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="135" spans="47:47">
-      <c r="AU135" t="s">
+    <row r="131" spans="49:49">
+      <c r="AW131" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="136" spans="47:47">
-      <c r="AU136" t="s">
+    <row r="132" spans="49:49">
+      <c r="AW132" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="137" spans="47:47">
-      <c r="AU137" t="s">
+    <row r="133" spans="49:49">
+      <c r="AW133" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="138" spans="47:47">
-      <c r="AU138" t="s">
+    <row r="134" spans="49:49">
+      <c r="AW134" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="139" spans="47:47">
-      <c r="AU139" t="s">
+    <row r="135" spans="49:49">
+      <c r="AW135" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="140" spans="47:47">
-      <c r="AU140" t="s">
+    <row r="136" spans="49:49">
+      <c r="AW136" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="141" spans="47:47">
-      <c r="AU141" t="s">
+    <row r="137" spans="49:49">
+      <c r="AW137" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="142" spans="47:47">
-      <c r="AU142" t="s">
+    <row r="138" spans="49:49">
+      <c r="AW138" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="143" spans="47:47">
-      <c r="AU143" t="s">
+    <row r="139" spans="49:49">
+      <c r="AW139" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="144" spans="47:47">
-      <c r="AU144" t="s">
+    <row r="140" spans="49:49">
+      <c r="AW140" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="145" spans="47:47">
-      <c r="AU145" t="s">
+    <row r="141" spans="49:49">
+      <c r="AW141" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="146" spans="47:47">
-      <c r="AU146" t="s">
+    <row r="142" spans="49:49">
+      <c r="AW142" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="147" spans="47:47">
-      <c r="AU147" t="s">
+    <row r="143" spans="49:49">
+      <c r="AW143" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="148" spans="47:47">
-      <c r="AU148" t="s">
+    <row r="144" spans="49:49">
+      <c r="AW144" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="149" spans="47:47">
-      <c r="AU149" t="s">
+    <row r="145" spans="49:49">
+      <c r="AW145" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="150" spans="47:47">
-      <c r="AU150" t="s">
+    <row r="146" spans="49:49">
+      <c r="AW146" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="151" spans="47:47">
-      <c r="AU151" t="s">
+    <row r="147" spans="49:49">
+      <c r="AW147" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="152" spans="47:47">
-      <c r="AU152" t="s">
+    <row r="148" spans="49:49">
+      <c r="AW148" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="153" spans="47:47">
-      <c r="AU153" t="s">
+    <row r="149" spans="49:49">
+      <c r="AW149" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="154" spans="47:47">
-      <c r="AU154" t="s">
+    <row r="150" spans="49:49">
+      <c r="AW150" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="155" spans="47:47">
-      <c r="AU155" t="s">
+    <row r="151" spans="49:49">
+      <c r="AW151" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="156" spans="47:47">
-      <c r="AU156" t="s">
+    <row r="152" spans="49:49">
+      <c r="AW152" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="157" spans="47:47">
-      <c r="AU157" t="s">
+    <row r="153" spans="49:49">
+      <c r="AW153" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="158" spans="47:47">
-      <c r="AU158" t="s">
+    <row r="154" spans="49:49">
+      <c r="AW154" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="159" spans="47:47">
-      <c r="AU159" t="s">
+    <row r="155" spans="49:49">
+      <c r="AW155" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="160" spans="47:47">
-      <c r="AU160" t="s">
+    <row r="156" spans="49:49">
+      <c r="AW156" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="161" spans="47:47">
-      <c r="AU161" t="s">
+    <row r="157" spans="49:49">
+      <c r="AW157" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="162" spans="47:47">
-      <c r="AU162" t="s">
+    <row r="158" spans="49:49">
+      <c r="AW158" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="163" spans="47:47">
-      <c r="AU163" t="s">
+    <row r="159" spans="49:49">
+      <c r="AW159" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="164" spans="47:47">
-      <c r="AU164" t="s">
+    <row r="160" spans="49:49">
+      <c r="AW160" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="165" spans="47:47">
-      <c r="AU165" t="s">
+    <row r="161" spans="49:49">
+      <c r="AW161" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="166" spans="47:47">
-      <c r="AU166" t="s">
+    <row r="162" spans="49:49">
+      <c r="AW162" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="167" spans="47:47">
-      <c r="AU167" t="s">
+    <row r="163" spans="49:49">
+      <c r="AW163" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="168" spans="47:47">
-      <c r="AU168" t="s">
+    <row r="164" spans="49:49">
+      <c r="AW164" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="47:47">
-      <c r="AU169" t="s">
+    <row r="165" spans="49:49">
+      <c r="AW165" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="170" spans="47:47">
-      <c r="AU170" t="s">
+    <row r="166" spans="49:49">
+      <c r="AW166" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="171" spans="47:47">
-      <c r="AU171" t="s">
+    <row r="167" spans="49:49">
+      <c r="AW167" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="47:47">
-      <c r="AU172" t="s">
+    <row r="168" spans="49:49">
+      <c r="AW168" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="173" spans="47:47">
-      <c r="AU173" t="s">
+    <row r="169" spans="49:49">
+      <c r="AW169" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="174" spans="47:47">
-      <c r="AU174" t="s">
+    <row r="170" spans="49:49">
+      <c r="AW170" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="175" spans="47:47">
-      <c r="AU175" t="s">
+    <row r="171" spans="49:49">
+      <c r="AW171" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="47:47">
-      <c r="AU176" t="s">
+    <row r="172" spans="49:49">
+      <c r="AW172" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="177" spans="47:47">
-      <c r="AU177" t="s">
+    <row r="173" spans="49:49">
+      <c r="AW173" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="178" spans="47:47">
-      <c r="AU178" t="s">
+    <row r="174" spans="49:49">
+      <c r="AW174" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="47:47">
-      <c r="AU179" t="s">
+    <row r="175" spans="49:49">
+      <c r="AW175" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="180" spans="47:47">
-      <c r="AU180" t="s">
+    <row r="176" spans="49:49">
+      <c r="AW176" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="181" spans="47:47">
-      <c r="AU181" t="s">
+    <row r="177" spans="49:49">
+      <c r="AW177" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="182" spans="47:47">
-      <c r="AU182" t="s">
+    <row r="178" spans="49:49">
+      <c r="AW178" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="47:47">
-      <c r="AU183" t="s">
+    <row r="179" spans="49:49">
+      <c r="AW179" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="184" spans="47:47">
-      <c r="AU184" t="s">
+    <row r="180" spans="49:49">
+      <c r="AW180" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="185" spans="47:47">
-      <c r="AU185" t="s">
+    <row r="181" spans="49:49">
+      <c r="AW181" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="186" spans="47:47">
-      <c r="AU186" t="s">
+    <row r="182" spans="49:49">
+      <c r="AW182" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="187" spans="47:47">
-      <c r="AU187" t="s">
+    <row r="183" spans="49:49">
+      <c r="AW183" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="188" spans="47:47">
-      <c r="AU188" t="s">
+    <row r="184" spans="49:49">
+      <c r="AW184" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="189" spans="47:47">
-      <c r="AU189" t="s">
+    <row r="185" spans="49:49">
+      <c r="AW185" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="190" spans="47:47">
-      <c r="AU190" t="s">
+    <row r="186" spans="49:49">
+      <c r="AW186" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="191" spans="47:47">
-      <c r="AU191" t="s">
+    <row r="187" spans="49:49">
+      <c r="AW187" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="192" spans="47:47">
-      <c r="AU192" t="s">
+    <row r="188" spans="49:49">
+      <c r="AW188" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="193" spans="47:47">
-      <c r="AU193" t="s">
+    <row r="189" spans="49:49">
+      <c r="AW189" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="194" spans="47:47">
-      <c r="AU194" t="s">
+    <row r="190" spans="49:49">
+      <c r="AW190" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="195" spans="47:47">
-      <c r="AU195" t="s">
+    <row r="191" spans="49:49">
+      <c r="AW191" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="196" spans="47:47">
-      <c r="AU196" t="s">
+    <row r="192" spans="49:49">
+      <c r="AW192" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="197" spans="47:47">
-      <c r="AU197" t="s">
+    <row r="193" spans="49:49">
+      <c r="AW193" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="198" spans="47:47">
-      <c r="AU198" t="s">
+    <row r="194" spans="49:49">
+      <c r="AW194" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="199" spans="47:47">
-      <c r="AU199" t="s">
+    <row r="195" spans="49:49">
+      <c r="AW195" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="200" spans="47:47">
-      <c r="AU200" t="s">
+    <row r="196" spans="49:49">
+      <c r="AW196" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="201" spans="47:47">
-      <c r="AU201" t="s">
+    <row r="197" spans="49:49">
+      <c r="AW197" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="202" spans="47:47">
-      <c r="AU202" t="s">
+    <row r="198" spans="49:49">
+      <c r="AW198" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="203" spans="47:47">
-      <c r="AU203" t="s">
+    <row r="199" spans="49:49">
+      <c r="AW199" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="204" spans="47:47">
-      <c r="AU204" t="s">
+    <row r="200" spans="49:49">
+      <c r="AW200" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="205" spans="47:47">
-      <c r="AU205" t="s">
+    <row r="201" spans="49:49">
+      <c r="AW201" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="206" spans="47:47">
-      <c r="AU206" t="s">
+    <row r="202" spans="49:49">
+      <c r="AW202" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="207" spans="47:47">
-      <c r="AU207" t="s">
+    <row r="203" spans="49:49">
+      <c r="AW203" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="208" spans="47:47">
-      <c r="AU208" t="s">
+    <row r="204" spans="49:49">
+      <c r="AW204" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="209" spans="47:47">
-      <c r="AU209" t="s">
+    <row r="205" spans="49:49">
+      <c r="AW205" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="210" spans="47:47">
-      <c r="AU210" t="s">
+    <row r="206" spans="49:49">
+      <c r="AW206" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="211" spans="47:47">
-      <c r="AU211" t="s">
+    <row r="207" spans="49:49">
+      <c r="AW207" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="212" spans="47:47">
-      <c r="AU212" t="s">
+    <row r="208" spans="49:49">
+      <c r="AW208" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="213" spans="47:47">
-      <c r="AU213" t="s">
+    <row r="209" spans="49:49">
+      <c r="AW209" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="214" spans="47:47">
-      <c r="AU214" t="s">
+    <row r="210" spans="49:49">
+      <c r="AW210" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="215" spans="47:47">
-      <c r="AU215" t="s">
+    <row r="211" spans="49:49">
+      <c r="AW211" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="216" spans="47:47">
-      <c r="AU216" t="s">
+    <row r="212" spans="49:49">
+      <c r="AW212" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="217" spans="47:47">
-      <c r="AU217" t="s">
+    <row r="213" spans="49:49">
+      <c r="AW213" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="218" spans="47:47">
-      <c r="AU218" t="s">
+    <row r="214" spans="49:49">
+      <c r="AW214" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="219" spans="47:47">
-      <c r="AU219" t="s">
+    <row r="215" spans="49:49">
+      <c r="AW215" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="47:47">
-      <c r="AU220" t="s">
+    <row r="216" spans="49:49">
+      <c r="AW216" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="221" spans="47:47">
-      <c r="AU221" t="s">
+    <row r="217" spans="49:49">
+      <c r="AW217" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="222" spans="47:47">
-      <c r="AU222" t="s">
+    <row r="218" spans="49:49">
+      <c r="AW218" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="223" spans="47:47">
-      <c r="AU223" t="s">
+    <row r="219" spans="49:49">
+      <c r="AW219" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="224" spans="47:47">
-      <c r="AU224" t="s">
+    <row r="220" spans="49:49">
+      <c r="AW220" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="225" spans="47:47">
-      <c r="AU225" t="s">
+    <row r="221" spans="49:49">
+      <c r="AW221" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="226" spans="47:47">
-      <c r="AU226" t="s">
+    <row r="222" spans="49:49">
+      <c r="AW222" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="227" spans="47:47">
-      <c r="AU227" t="s">
+    <row r="223" spans="49:49">
+      <c r="AW223" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="228" spans="47:47">
-      <c r="AU228" t="s">
+    <row r="224" spans="49:49">
+      <c r="AW224" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="229" spans="47:47">
-      <c r="AU229" t="s">
+    <row r="225" spans="49:49">
+      <c r="AW225" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="230" spans="47:47">
-      <c r="AU230" t="s">
+    <row r="226" spans="49:49">
+      <c r="AW226" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="231" spans="47:47">
-      <c r="AU231" t="s">
+    <row r="227" spans="49:49">
+      <c r="AW227" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="232" spans="47:47">
-      <c r="AU232" t="s">
+    <row r="228" spans="49:49">
+      <c r="AW228" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="233" spans="47:47">
-      <c r="AU233" t="s">
+    <row r="229" spans="49:49">
+      <c r="AW229" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="234" spans="47:47">
-      <c r="AU234" t="s">
+    <row r="230" spans="49:49">
+      <c r="AW230" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="235" spans="47:47">
-      <c r="AU235" t="s">
+    <row r="231" spans="49:49">
+      <c r="AW231" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="236" spans="47:47">
-      <c r="AU236" t="s">
+    <row r="232" spans="49:49">
+      <c r="AW232" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="237" spans="47:47">
-      <c r="AU237" t="s">
+    <row r="233" spans="49:49">
+      <c r="AW233" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="238" spans="47:47">
-      <c r="AU238" t="s">
+    <row r="234" spans="49:49">
+      <c r="AW234" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="239" spans="47:47">
-      <c r="AU239" t="s">
+    <row r="235" spans="49:49">
+      <c r="AW235" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="240" spans="47:47">
-      <c r="AU240" t="s">
+    <row r="236" spans="49:49">
+      <c r="AW236" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="241" spans="47:47">
-      <c r="AU241" t="s">
+    <row r="237" spans="49:49">
+      <c r="AW237" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="242" spans="47:47">
-      <c r="AU242" t="s">
+    <row r="238" spans="49:49">
+      <c r="AW238" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="243" spans="47:47">
-      <c r="AU243" t="s">
+    <row r="239" spans="49:49">
+      <c r="AW239" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="244" spans="47:47">
-      <c r="AU244" t="s">
+    <row r="240" spans="49:49">
+      <c r="AW240" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="245" spans="47:47">
-      <c r="AU245" t="s">
+    <row r="241" spans="49:49">
+      <c r="AW241" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="47:47">
-      <c r="AU246" t="s">
+    <row r="242" spans="49:49">
+      <c r="AW242" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="247" spans="47:47">
-      <c r="AU247" t="s">
+    <row r="243" spans="49:49">
+      <c r="AW243" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="248" spans="47:47">
-      <c r="AU248" t="s">
+    <row r="244" spans="49:49">
+      <c r="AW244" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="249" spans="47:47">
-      <c r="AU249" t="s">
+    <row r="245" spans="49:49">
+      <c r="AW245" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="250" spans="47:47">
-      <c r="AU250" t="s">
+    <row r="246" spans="49:49">
+      <c r="AW246" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="251" spans="47:47">
-      <c r="AU251" t="s">
+    <row r="247" spans="49:49">
+      <c r="AW247" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="47:47">
-      <c r="AU252" t="s">
+    <row r="248" spans="49:49">
+      <c r="AW248" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="253" spans="47:47">
-      <c r="AU253" t="s">
+    <row r="249" spans="49:49">
+      <c r="AW249" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="254" spans="47:47">
-      <c r="AU254" t="s">
+    <row r="250" spans="49:49">
+      <c r="AW250" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="255" spans="47:47">
-      <c r="AU255" t="s">
+    <row r="251" spans="49:49">
+      <c r="AW251" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="256" spans="47:47">
-      <c r="AU256" t="s">
+    <row r="252" spans="49:49">
+      <c r="AW252" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="257" spans="47:47">
-      <c r="AU257" t="s">
+    <row r="253" spans="49:49">
+      <c r="AW253" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="258" spans="47:47">
-      <c r="AU258" t="s">
+    <row r="254" spans="49:49">
+      <c r="AW254" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="259" spans="47:47">
-      <c r="AU259" t="s">
+    <row r="255" spans="49:49">
+      <c r="AW255" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="260" spans="47:47">
-      <c r="AU260" t="s">
+    <row r="256" spans="49:49">
+      <c r="AW256" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="261" spans="47:47">
-      <c r="AU261" t="s">
+    <row r="257" spans="49:49">
+      <c r="AW257" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="262" spans="47:47">
-      <c r="AU262" t="s">
+    <row r="258" spans="49:49">
+      <c r="AW258" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="263" spans="47:47">
-      <c r="AU263" t="s">
+    <row r="259" spans="49:49">
+      <c r="AW259" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="264" spans="47:47">
-      <c r="AU264" t="s">
+    <row r="260" spans="49:49">
+      <c r="AW260" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="265" spans="47:47">
-      <c r="AU265" t="s">
+    <row r="261" spans="49:49">
+      <c r="AW261" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="266" spans="47:47">
-      <c r="AU266" t="s">
+    <row r="262" spans="49:49">
+      <c r="AW262" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="267" spans="47:47">
-      <c r="AU267" t="s">
+    <row r="263" spans="49:49">
+      <c r="AW263" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="268" spans="47:47">
-      <c r="AU268" t="s">
+    <row r="264" spans="49:49">
+      <c r="AW264" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="269" spans="47:47">
-      <c r="AU269" t="s">
+    <row r="265" spans="49:49">
+      <c r="AW265" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="270" spans="47:47">
-      <c r="AU270" t="s">
+    <row r="266" spans="49:49">
+      <c r="AW266" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="271" spans="47:47">
-      <c r="AU271" t="s">
+    <row r="267" spans="49:49">
+      <c r="AW267" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="272" spans="47:47">
-      <c r="AU272" t="s">
+    <row r="268" spans="49:49">
+      <c r="AW268" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="273" spans="47:47">
-      <c r="AU273" t="s">
+    <row r="269" spans="49:49">
+      <c r="AW269" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="274" spans="47:47">
-      <c r="AU274" t="s">
+    <row r="270" spans="49:49">
+      <c r="AW270" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="275" spans="47:47">
-      <c r="AU275" t="s">
+    <row r="271" spans="49:49">
+      <c r="AW271" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="276" spans="47:47">
-      <c r="AU276" t="s">
+    <row r="272" spans="49:49">
+      <c r="AW272" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="277" spans="47:47">
-      <c r="AU277" t="s">
+    <row r="273" spans="49:49">
+      <c r="AW273" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="278" spans="47:47">
-      <c r="AU278" t="s">
+    <row r="274" spans="49:49">
+      <c r="AW274" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="279" spans="47:47">
-      <c r="AU279" t="s">
+    <row r="275" spans="49:49">
+      <c r="AW275" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="280" spans="47:47">
-      <c r="AU280" t="s">
+    <row r="276" spans="49:49">
+      <c r="AW276" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="281" spans="47:47">
-      <c r="AU281" t="s">
+    <row r="277" spans="49:49">
+      <c r="AW277" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="282" spans="47:47">
-      <c r="AU282" t="s">
+    <row r="278" spans="49:49">
+      <c r="AW278" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="283" spans="47:47">
-      <c r="AU283" t="s">
+    <row r="279" spans="49:49">
+      <c r="AW279" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="284" spans="47:47">
-      <c r="AU284" t="s">
+    <row r="280" spans="49:49">
+      <c r="AW280" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="285" spans="47:47">
-      <c r="AU285" t="s">
+    <row r="281" spans="49:49">
+      <c r="AW281" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="286" spans="47:47">
-      <c r="AU286" t="s">
+    <row r="282" spans="49:49">
+      <c r="AW282" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="287" spans="47:47">
-      <c r="AU287" t="s">
+    <row r="283" spans="49:49">
+      <c r="AW283" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="288" spans="47:47">
-      <c r="AU288" t="s">
+    <row r="284" spans="49:49">
+      <c r="AW284" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="289" spans="47:47">
-      <c r="AU289" t="s">
+    <row r="285" spans="49:49">
+      <c r="AW285" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="286" spans="49:49">
+      <c r="AW286" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="287" spans="49:49">
+      <c r="AW287" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="288" spans="49:49">
+      <c r="AW288" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="289" spans="49:49">
+      <c r="AW289" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$AI$1:$AI$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="886">
   <si>
     <t>alias</t>
   </si>
@@ -1225,13 +1225,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t, g, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1471,9 +1471,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1492,6 +1489,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1693,6 +1693,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1702,9 +1705,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1744,7 +1744,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1813,6 +1813,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1888,6 +1891,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1909,6 +1915,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1954,6 +1963,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1966,6 +1978,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1975,9 +1990,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2002,6 +2014,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2062,12 +2077,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2158,13 +2173,13 @@
     <t>water current</t>
   </si>
   <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s, knot)</t>
   </si>
   <si>
     <t>fluorescence</t>
   </si>
   <si>
-    <t>(Optional) Raw (volts) or converted (mg chla/m^3) fluorescence of the water (Units: mg Chla/m3)</t>
+    <t>(Optional) Raw (volts) or converted (mg chla/m^3) fluorescence of the water (Units: V, mg Chla/m3)</t>
   </si>
   <si>
     <t>light intensity</t>
@@ -2200,7 +2215,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar, atm)</t>
   </si>
   <si>
     <t>high</t>
@@ -2218,7 +2233,7 @@
     <t>turbidity</t>
   </si>
   <si>
-    <t>(Optional) Turbidity measurement (Units: NTU)</t>
+    <t>(Optional) Turbidity measurement (Units: FTU, NTU)</t>
   </si>
   <si>
     <t>pH</t>
@@ -2236,7 +2251,7 @@
     <t>alkyl diethers</t>
   </si>
   <si>
-    <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
+    <t>(Optional) Concentration of alkyl diethers (Units: M/L, µg/L)</t>
   </si>
   <si>
     <t>aminopeptidase activity</t>
@@ -2272,19 +2287,19 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g, µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of bromide (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: parts/million, µmol/L, mg/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2302,7 +2317,7 @@
     <t>chlorophyll</t>
   </si>
   <si>
-    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
+    <t>(Optional) Concentration of chlorophyll (Units: mg/m3, µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
@@ -2350,7 +2365,7 @@
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: mg/L, µg/L)</t>
   </si>
   <si>
     <t>dissolved oxygen</t>
@@ -2368,7 +2383,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million, mol/L, mg/L)</t>
   </si>
   <si>
     <t>n-alkanes</t>
@@ -2434,7 +2449,7 @@
     <t>phaeopigments</t>
   </si>
   <si>
-    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: µg/L)</t>
+    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: mg/m3, µg/L)</t>
   </si>
   <si>
     <t>phosphate</t>
@@ -2446,19 +2461,19 @@
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/L, mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of potassium (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>primary production</t>
   </si>
   <si>
-    <t>(Optional) Measurement of primary production (Units: mg/m3/day)</t>
+    <t>(Optional) Measurement of primary production (Units: mg/m3/day, g/m2/day)</t>
   </si>
   <si>
     <t>redox potential</t>
@@ -2482,7 +2497,7 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
+    <t>(Optional) Sodium concentration (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>soluble reactive phosphorus</t>
@@ -2494,13 +2509,13 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>suspended particulate matter</t>
@@ -2524,13 +2539,13 @@
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L, µg/L)</t>
   </si>
   <si>
     <t>total particulate carbon</t>
   </si>
   <si>
-    <t>(Optional) Total particulate carbon content (Units: µmol/L)</t>
+    <t>(Optional) Total particulate carbon content (Units: µmol/L, µg/L)</t>
   </si>
   <si>
     <t>total phosphorus</t>
@@ -2608,7 +2623,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2674,7 +2689,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4369,280 +4384,280 @@
         <v>404</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2" spans="1:140" ht="150" customHeight="1">
@@ -4791,280 +4806,280 @@
         <v>405</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -5100,7 +5115,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="L1:BJ289"/>
+  <dimension ref="L1:BJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5129,7 +5144,7 @@
         <v>406</v>
       </c>
       <c r="BJ1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="12:62">
@@ -5152,7 +5167,7 @@
         <v>407</v>
       </c>
       <c r="BJ2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="12:62">
@@ -6699,6 +6714,31 @@
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
         <v>694</v>
+      </c>
+    </row>
+    <row r="290" spans="49:49">
+      <c r="AW290" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="291" spans="49:49">
+      <c r="AW291" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="292" spans="49:49">
+      <c r="AW292" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="293" spans="49:49">
+      <c r="AW293" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="294" spans="49:49">
+      <c r="AW294" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000027/metadata_template_ERC000027.xlsx
+++ b/templates/ERC000027/metadata_template_ERC000027.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalpackage">'cv_sample'!$AI$1:$AI$1</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AW$1:$AW$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="886">
   <si>
     <t>alias</t>
   </si>
@@ -1225,13 +1225,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1471,9 +1471,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1492,6 +1489,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1693,6 +1693,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1702,9 +1705,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1744,7 +1744,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1813,6 +1813,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1888,6 +1891,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1909,6 +1915,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1954,6 +1963,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1966,6 +1978,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1975,9 +1990,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2002,6 +2014,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2062,12 +2077,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2158,7 +2173,7 @@
     <t>water current</t>
   </si>
   <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: knot)</t>
   </si>
   <si>
     <t>fluorescence</t>
@@ -2200,7 +2215,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>high</t>
@@ -2272,7 +2287,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2284,7 +2299,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2368,7 +2383,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
   </si>
   <si>
     <t>n-alkanes</t>
@@ -2458,7 +2473,7 @@
     <t>primary production</t>
   </si>
   <si>
-    <t>(Optional) Measurement of primary production (Units: mg/m3/day)</t>
+    <t>(Optional) Measurement of primary production (Units: g/m2/day)</t>
   </si>
   <si>
     <t>redox potential</t>
@@ -2494,13 +2509,13 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
   </si>
   <si>
     <t>suspended particulate matter</t>
@@ -2524,13 +2539,13 @@
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>total particulate carbon</t>
   </si>
   <si>
-    <t>(Optional) Total particulate carbon content (Units: µmol/L)</t>
+    <t>(Optional) Total particulate carbon content (Units: µg/L)</t>
   </si>
   <si>
     <t>total phosphorus</t>
@@ -2608,7 +2623,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2674,7 +2689,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4369,280 +4384,280 @@
         <v>404</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2" spans="1:140" ht="150" customHeight="1">
@@ -4791,280 +4806,280 @@
         <v>405</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -5100,7 +5115,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="L1:BJ289"/>
+  <dimension ref="L1:BJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5129,7 +5144,7 @@
         <v>406</v>
       </c>
       <c r="BJ1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="12:62">
@@ -5152,7 +5167,7 @@
         <v>407</v>
       </c>
       <c r="BJ2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="12:62">
@@ -6699,6 +6714,31 @@
     <row r="289" spans="49:49">
       <c r="AW289" t="s">
         <v>694</v>
+      </c>
+    </row>
+    <row r="290" spans="49:49">
+      <c r="AW290" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="291" spans="49:49">
+      <c r="AW291" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="292" spans="49:49">
+      <c r="AW292" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="293" spans="49:49">
+      <c r="AW293" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="294" spans="49:49">
+      <c r="AW294" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
